--- a/Leetcode/!!!best_leetcoders.xlsx
+++ b/Leetcode/!!!best_leetcoders.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Rank</t>
   </si>
@@ -109,6 +109,12 @@
   </si>
   <si>
     <t>https://leetcode.com/u/chentao169/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/u/chestnut890123/</t>
+  </si>
+  <si>
+    <t>https://github.com/acmilannesta</t>
   </si>
 </sst>
 </file>
@@ -457,11 +463,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -513,193 +519,214 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="3">
+        <v>117</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2">
+        <v>2571</v>
+      </c>
+      <c r="E2" s="2">
+        <v>18</v>
+      </c>
+      <c r="F2">
+        <v>91</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="3">
         <v>214</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2">
         <v>16</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>77</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>2383</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M3" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3">
-        <v>296</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>243</v>
-      </c>
-      <c r="H3">
-        <v>230</v>
-      </c>
-      <c r="I3">
-        <v>37</v>
-      </c>
-      <c r="J3">
-        <v>1993</v>
-      </c>
-      <c r="L3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4">
-        <v>4194</v>
+        <v>296</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="D4">
-        <v>1319</v>
-      </c>
-      <c r="G4">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="F4">
+        <v>243</v>
+      </c>
+      <c r="H4">
+        <v>230</v>
       </c>
       <c r="I4">
-        <v>6</v>
+        <v>37</v>
+      </c>
+      <c r="J4">
+        <v>1993</v>
       </c>
       <c r="L4" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
-        <v>5561</v>
+        <v>4194</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C5">
-        <v>60</v>
-      </c>
-      <c r="F5">
-        <v>46</v>
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>1319</v>
       </c>
       <c r="G5">
-        <v>1142</v>
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6">
-        <v>16161</v>
+        <v>5561</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6">
-        <v>191</v>
+        <v>23</v>
+      </c>
+      <c r="C6">
+        <v>60</v>
+      </c>
+      <c r="F6">
+        <v>46</v>
       </c>
       <c r="G6">
-        <v>895</v>
+        <v>1142</v>
       </c>
       <c r="L6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7">
-        <v>62507</v>
+        <v>16161</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D7">
+        <v>191</v>
       </c>
       <c r="G7">
-        <v>599</v>
-      </c>
-      <c r="I7">
-        <v>4</v>
+        <v>895</v>
       </c>
       <c r="L7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
-        <v>85400</v>
+        <v>62507</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8">
-        <v>63</v>
-      </c>
-      <c r="K8">
-        <v>352</v>
+        <v>21</v>
+      </c>
+      <c r="G8">
+        <v>599</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
       </c>
       <c r="L8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9">
+        <v>85400</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9">
+        <v>63</v>
+      </c>
+      <c r="K9">
+        <v>352</v>
+      </c>
+      <c r="L9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10">
         <v>99772</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>25</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>17</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>481</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L10" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="1">
-        <v>236858</v>
-      </c>
-      <c r="B10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10">
-        <v>67</v>
-      </c>
-      <c r="D10">
-        <v>138</v>
-      </c>
-      <c r="G10">
-        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
+        <v>236858</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>67</v>
+      </c>
+      <c r="D11">
+        <v>138</v>
+      </c>
+      <c r="G11">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1">
         <v>484487</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>43</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>144</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>6</v>
       </c>
     </row>

--- a/Leetcode/!!!best_leetcoders.xlsx
+++ b/Leetcode/!!!best_leetcoders.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
   <si>
     <t>Rank</t>
   </si>
@@ -115,6 +115,18 @@
   </si>
   <si>
     <t>https://github.com/acmilannesta</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/u/Motaharozzaman1996/</t>
+  </si>
+  <si>
+    <t>https://github.com/Motaharozzaman</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/u/hemantdhamija/</t>
+  </si>
+  <si>
+    <t>https://github.com/DoRmAmMu1997</t>
   </si>
 </sst>
 </file>
@@ -463,16 +475,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L3" sqref="L3"/>
+      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -563,170 +575,218 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4">
-        <v>296</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
+      <c r="A4" s="3">
+        <v>282</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
+        <v>2349</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4">
-        <v>243</v>
-      </c>
-      <c r="H4">
-        <v>230</v>
-      </c>
-      <c r="I4">
         <v>37</v>
       </c>
-      <c r="J4">
-        <v>1993</v>
+      <c r="K4">
+        <v>34</v>
       </c>
       <c r="L4" t="s">
-        <v>12</v>
+        <v>36</v>
+      </c>
+      <c r="M4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5">
-        <v>4194</v>
+        <v>296</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>1319</v>
-      </c>
-      <c r="G5">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>243</v>
+      </c>
+      <c r="H5">
+        <v>230</v>
       </c>
       <c r="I5">
-        <v>6</v>
+        <v>37</v>
+      </c>
+      <c r="J5">
+        <v>1993</v>
       </c>
       <c r="L5" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6">
-        <v>5561</v>
+      <c r="A6" s="3">
+        <v>736</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="C6">
-        <v>60</v>
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1939</v>
       </c>
       <c r="F6">
-        <v>46</v>
-      </c>
-      <c r="G6">
-        <v>1142</v>
+        <v>63</v>
+      </c>
+      <c r="K6">
+        <v>44</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7">
-        <v>16161</v>
+        <v>4194</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>191</v>
+        <v>1319</v>
       </c>
       <c r="G7">
-        <v>895</v>
+        <v>7</v>
+      </c>
+      <c r="I7">
+        <v>6</v>
       </c>
       <c r="L7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
-        <v>62507</v>
+        <v>5561</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>60</v>
+      </c>
+      <c r="F8">
+        <v>46</v>
       </c>
       <c r="G8">
-        <v>599</v>
-      </c>
-      <c r="I8">
-        <v>4</v>
+        <v>1142</v>
       </c>
       <c r="L8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9">
-        <v>85400</v>
+        <v>16161</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9">
-        <v>63</v>
-      </c>
-      <c r="K9">
-        <v>352</v>
+        <v>19</v>
+      </c>
+      <c r="D9">
+        <v>191</v>
+      </c>
+      <c r="G9">
+        <v>895</v>
       </c>
       <c r="L9" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10">
+        <v>62507</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10">
+        <v>599</v>
+      </c>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="L10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11">
+        <v>85400</v>
+      </c>
+      <c r="B11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11">
+        <v>63</v>
+      </c>
+      <c r="K11">
+        <v>352</v>
+      </c>
+      <c r="L11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12">
         <v>99772</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
         <v>25</v>
       </c>
-      <c r="F10">
+      <c r="F12">
         <v>17</v>
       </c>
-      <c r="G10">
+      <c r="G12">
         <v>481</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="1">
+    <row r="13" spans="1:13">
+      <c r="A13" s="1">
         <v>236858</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B13" t="s">
         <v>30</v>
       </c>
-      <c r="C11">
+      <c r="C13">
         <v>67</v>
       </c>
-      <c r="D11">
+      <c r="D13">
         <v>138</v>
       </c>
-      <c r="G11">
+      <c r="G13">
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" s="1">
+    <row r="14" spans="1:13">
+      <c r="A14" s="1">
         <v>484487</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>7</v>
       </c>
-      <c r="C12">
+      <c r="C14">
         <v>43</v>
       </c>
-      <c r="D12">
+      <c r="D14">
         <v>144</v>
       </c>
-      <c r="E12">
+      <c r="E14">
         <v>6</v>
       </c>
     </row>

--- a/Leetcode/!!!best_leetcoders.xlsx
+++ b/Leetcode/!!!best_leetcoders.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
   <si>
     <t>Rank</t>
   </si>
@@ -127,6 +127,15 @@
   </si>
   <si>
     <t>https://github.com/DoRmAmMu1997</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/u/21f1002538/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/u/MikPosp/</t>
+  </si>
+  <si>
+    <t>No data</t>
   </si>
 </sst>
 </file>
@@ -475,11 +484,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
+      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -646,147 +655,184 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7">
-        <v>4194</v>
+      <c r="A7" s="3">
+        <v>2602</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D7">
-        <v>1319</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-      <c r="I7">
-        <v>6</v>
+        <v>1420</v>
+      </c>
+      <c r="F7">
+        <v>77</v>
       </c>
       <c r="L7" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8">
-        <v>5561</v>
+        <v>4194</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C8">
-        <v>60</v>
-      </c>
-      <c r="F8">
-        <v>46</v>
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>1319</v>
       </c>
       <c r="G8">
-        <v>1142</v>
+        <v>7</v>
+      </c>
+      <c r="I8">
+        <v>6</v>
       </c>
       <c r="L8" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9">
-        <v>16161</v>
+        <v>5561</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9">
-        <v>191</v>
+        <v>23</v>
+      </c>
+      <c r="C9">
+        <v>60</v>
+      </c>
+      <c r="F9">
+        <v>46</v>
       </c>
       <c r="G9">
-        <v>895</v>
+        <v>1142</v>
       </c>
       <c r="L9" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10">
-        <v>62507</v>
+        <v>16161</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D10">
+        <v>191</v>
       </c>
       <c r="G10">
-        <v>599</v>
-      </c>
-      <c r="I10">
-        <v>4</v>
+        <v>895</v>
       </c>
       <c r="L10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11">
-        <v>85400</v>
+        <v>62507</v>
       </c>
       <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11">
-        <v>63</v>
-      </c>
-      <c r="K11">
-        <v>352</v>
+        <v>21</v>
+      </c>
+      <c r="G11">
+        <v>599</v>
+      </c>
+      <c r="I11">
+        <v>4</v>
       </c>
       <c r="L11" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12">
+        <v>85400</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12">
+        <v>63</v>
+      </c>
+      <c r="K12">
+        <v>352</v>
+      </c>
+      <c r="L12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13">
         <v>99772</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>25</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>17</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>481</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L13" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13" s="1">
-        <v>236858</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13">
-        <v>67</v>
-      </c>
-      <c r="D13">
-        <v>138</v>
-      </c>
-      <c r="G13">
-        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
+        <v>236858</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>67</v>
+      </c>
+      <c r="D14">
+        <v>138</v>
+      </c>
+      <c r="G14">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1">
+        <v>254342</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15">
+        <v>254</v>
+      </c>
+      <c r="E15">
+        <v>31</v>
+      </c>
+      <c r="F15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
         <v>484487</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B16" t="s">
         <v>7</v>
       </c>
-      <c r="C14">
+      <c r="C16">
         <v>43</v>
       </c>
-      <c r="D14">
+      <c r="D16">
         <v>144</v>
       </c>
-      <c r="E14">
+      <c r="E16">
         <v>6</v>
       </c>
     </row>

--- a/Leetcode/!!!best_leetcoders.xlsx
+++ b/Leetcode/!!!best_leetcoders.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>Rank</t>
   </si>
@@ -136,6 +136,9 @@
   </si>
   <si>
     <t>No data</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/u/the_sky_high/</t>
   </si>
 </sst>
 </file>
@@ -185,11 +188,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -484,15 +488,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L7" sqref="L7"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="34" bestFit="1" customWidth="1"/>
   </cols>
@@ -539,7 +544,7 @@
       </c>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="3">
+      <c r="A2" s="4">
         <v>117</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -560,7 +565,7 @@
       </c>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="3">
+      <c r="A3" s="4">
         <v>214</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -584,7 +589,7 @@
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="3">
+      <c r="A4" s="4">
         <v>282</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -609,7 +614,7 @@
       </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>296</v>
       </c>
       <c r="B5" t="s">
@@ -632,7 +637,7 @@
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>736</v>
       </c>
       <c r="B6" t="s">
@@ -655,7 +660,7 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>2602</v>
       </c>
       <c r="B7" t="s">
@@ -675,7 +680,7 @@
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>4194</v>
       </c>
       <c r="B8" t="s">
@@ -698,7 +703,7 @@
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>5561</v>
       </c>
       <c r="B9" t="s">
@@ -718,121 +723,138 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10">
+      <c r="A10" s="1">
+        <v>54012</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10">
+        <v>629</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="L10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1">
         <v>16161</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>191</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>895</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11">
+    <row r="12" spans="1:13">
+      <c r="A12" s="1">
         <v>62507</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>599</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>4</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12">
+    <row r="13" spans="1:13">
+      <c r="A13" s="1">
         <v>85400</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>63</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>352</v>
       </c>
-      <c r="L12" t="s">
+      <c r="L13" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
-      <c r="A13">
-        <v>99772</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13">
-        <v>17</v>
-      </c>
-      <c r="G13">
-        <v>481</v>
-      </c>
-      <c r="L13" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
-        <v>236858</v>
+        <v>99772</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14">
-        <v>67</v>
-      </c>
-      <c r="D14">
-        <v>138</v>
+        <v>25</v>
+      </c>
+      <c r="F14">
+        <v>17</v>
       </c>
       <c r="G14">
-        <v>151</v>
+        <v>481</v>
+      </c>
+      <c r="L14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1">
-        <v>254342</v>
+        <v>236858</v>
       </c>
       <c r="B15" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>67</v>
       </c>
       <c r="D15">
-        <v>254</v>
-      </c>
-      <c r="E15">
-        <v>31</v>
-      </c>
-      <c r="F15">
-        <v>19</v>
+        <v>138</v>
+      </c>
+      <c r="G15">
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1">
+        <v>254342</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16">
+        <v>254</v>
+      </c>
+      <c r="E16">
+        <v>31</v>
+      </c>
+      <c r="F16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
         <v>484487</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>7</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>43</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>144</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>6</v>
       </c>
     </row>

--- a/Leetcode/!!!best_leetcoders.xlsx
+++ b/Leetcode/!!!best_leetcoders.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="28755" windowHeight="12780"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="28755" windowHeight="12780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="GirHun" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
   <si>
     <t>Rank</t>
   </si>
@@ -139,6 +139,15 @@
   </si>
   <si>
     <t>https://leetcode.com/u/the_sky_high/</t>
+  </si>
+  <si>
+    <t>https://github.com/hqztrue/LeetCodeSolutions/</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Hint</t>
   </si>
 </sst>
 </file>
@@ -490,7 +499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
@@ -865,12 +874,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="45.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/Leetcode/!!!best_leetcoders.xlsx
+++ b/Leetcode/!!!best_leetcoders.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="28755" windowHeight="12780" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="28755" windowHeight="12780"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
   <si>
     <t>Rank</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>Hint</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/u/NeaI_Wu/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/u/tapanvaishnav17/</t>
   </si>
 </sst>
 </file>
@@ -497,11 +503,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -733,16 +739,19 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1">
-        <v>54012</v>
+        <v>52374</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C10">
-        <v>629</v>
+        <v>605</v>
+      </c>
+      <c r="D10">
+        <v>61</v>
       </c>
       <c r="F10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L10" t="s">
         <v>39</v>
@@ -750,120 +759,157 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
-        <v>16161</v>
+        <v>54012</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11">
-        <v>191</v>
-      </c>
-      <c r="G11">
-        <v>895</v>
+        <v>40</v>
+      </c>
+      <c r="C11">
+        <v>629</v>
+      </c>
+      <c r="F11">
+        <v>6</v>
       </c>
       <c r="L11" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1">
-        <v>62507</v>
+        <v>16161</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
+      </c>
+      <c r="D12">
+        <v>191</v>
       </c>
       <c r="G12">
-        <v>599</v>
-      </c>
-      <c r="I12">
-        <v>4</v>
+        <v>895</v>
       </c>
       <c r="L12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1">
-        <v>85400</v>
+        <v>62507</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13">
-        <v>63</v>
-      </c>
-      <c r="K13">
-        <v>352</v>
+        <v>21</v>
+      </c>
+      <c r="G13">
+        <v>599</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
       </c>
       <c r="L13" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
-        <v>99772</v>
+        <v>85400</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14">
-        <v>17</v>
-      </c>
-      <c r="G14">
-        <v>481</v>
+        <v>27</v>
+      </c>
+      <c r="C14">
+        <v>63</v>
+      </c>
+      <c r="K14">
+        <v>352</v>
       </c>
       <c r="L14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1">
-        <v>236858</v>
+        <v>99772</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15">
-        <v>67</v>
-      </c>
-      <c r="D15">
-        <v>138</v>
+        <v>25</v>
+      </c>
+      <c r="F15">
+        <v>17</v>
       </c>
       <c r="G15">
-        <v>151</v>
+        <v>481</v>
+      </c>
+      <c r="L15" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1">
+        <v>143368</v>
+      </c>
+      <c r="B16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16">
+        <v>22</v>
+      </c>
+      <c r="D16">
+        <v>351</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="L16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
+        <v>236858</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>67</v>
+      </c>
+      <c r="D17">
+        <v>138</v>
+      </c>
+      <c r="G17">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
         <v>254342</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="D16">
+      <c r="D18">
         <v>254</v>
       </c>
-      <c r="E16">
+      <c r="E18">
         <v>31</v>
       </c>
-      <c r="F16">
+      <c r="F18">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
         <v>484487</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B19" t="s">
         <v>7</v>
       </c>
-      <c r="C17">
+      <c r="C19">
         <v>43</v>
       </c>
-      <c r="D17">
+      <c r="D19">
         <v>144</v>
       </c>
-      <c r="E17">
+      <c r="E19">
         <v>6</v>
       </c>
     </row>
@@ -876,7 +922,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/Leetcode/!!!best_leetcoders.xlsx
+++ b/Leetcode/!!!best_leetcoders.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
   <si>
     <t>Rank</t>
   </si>
@@ -154,6 +154,15 @@
   </si>
   <si>
     <t>https://leetcode.com/u/tapanvaishnav17/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/u/chibi_chihiro/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/u/directioner1d/</t>
+  </si>
+  <si>
+    <t>https://github.com/VishnuBathla</t>
   </si>
 </sst>
 </file>
@@ -503,11 +512,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M19"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -676,240 +685,277 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="4">
+        <v>857</v>
+      </c>
+      <c r="B7" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1881</v>
+      </c>
+      <c r="E7">
+        <v>62</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="L7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="4">
         <v>2602</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>38</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>15</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>1420</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>77</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L8" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="1">
-        <v>4194</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8">
-        <v>1319</v>
-      </c>
-      <c r="G8">
-        <v>7</v>
-      </c>
-      <c r="I8">
-        <v>6</v>
-      </c>
-      <c r="L8" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="1">
-        <v>5561</v>
+        <v>4194</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C9">
-        <v>60</v>
-      </c>
-      <c r="F9">
-        <v>46</v>
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>1319</v>
       </c>
       <c r="G9">
-        <v>1142</v>
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>6</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1">
-        <v>52374</v>
+        <v>5561</v>
       </c>
       <c r="B10" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="C10">
-        <v>605</v>
-      </c>
-      <c r="D10">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>46</v>
+      </c>
+      <c r="G10">
+        <v>1142</v>
       </c>
       <c r="L10" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
-        <v>54012</v>
+        <v>16161</v>
       </c>
       <c r="B11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11">
-        <v>629</v>
-      </c>
-      <c r="F11">
-        <v>6</v>
+        <v>19</v>
+      </c>
+      <c r="D11">
+        <v>191</v>
+      </c>
+      <c r="G11">
+        <v>895</v>
       </c>
       <c r="L11" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1">
-        <v>16161</v>
+        <v>52374</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>44</v>
+      </c>
+      <c r="C12">
+        <v>605</v>
       </c>
       <c r="D12">
-        <v>191</v>
-      </c>
-      <c r="G12">
-        <v>895</v>
+        <v>61</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
       </c>
       <c r="L12" t="s">
-        <v>20</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1">
-        <v>62507</v>
+        <v>54012</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13">
-        <v>599</v>
-      </c>
-      <c r="I13">
-        <v>4</v>
+        <v>40</v>
+      </c>
+      <c r="C13">
+        <v>629</v>
+      </c>
+      <c r="F13">
+        <v>6</v>
       </c>
       <c r="L13" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
-        <v>85400</v>
+        <v>66186</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14">
-        <v>63</v>
-      </c>
-      <c r="K14">
-        <v>352</v>
-      </c>
-      <c r="L14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="1">
-        <v>99772</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15">
-        <v>17</v>
-      </c>
-      <c r="G15">
-        <v>481</v>
-      </c>
-      <c r="L15" t="s">
-        <v>26</v>
+        <v>46</v>
+      </c>
+      <c r="D14">
+        <v>583</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1">
+        <v>62507</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16">
+        <v>599</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="L16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1">
+        <v>85400</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17">
+        <v>63</v>
+      </c>
+      <c r="K17">
+        <v>352</v>
+      </c>
+      <c r="L17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1">
+        <v>99772</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18">
+        <v>17</v>
+      </c>
+      <c r="G18">
+        <v>481</v>
+      </c>
+      <c r="L18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1">
         <v>143368</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B19" t="s">
         <v>45</v>
       </c>
-      <c r="C16">
+      <c r="C19">
         <v>22</v>
       </c>
-      <c r="D16">
+      <c r="D19">
         <v>351</v>
       </c>
-      <c r="F16">
+      <c r="F19">
         <v>1</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L19" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="1">
+    <row r="20" spans="1:12">
+      <c r="A20" s="1">
         <v>236858</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B20" t="s">
         <v>30</v>
       </c>
-      <c r="C17">
+      <c r="C20">
         <v>67</v>
       </c>
-      <c r="D17">
+      <c r="D20">
         <v>138</v>
       </c>
-      <c r="G17">
+      <c r="G20">
         <v>151</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="1">
+    <row r="21" spans="1:12">
+      <c r="A21" s="1">
         <v>254342</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B21" t="s">
         <v>37</v>
       </c>
-      <c r="D18">
+      <c r="D21">
         <v>254</v>
       </c>
-      <c r="E18">
+      <c r="E21">
         <v>31</v>
       </c>
-      <c r="F18">
+      <c r="F21">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="1">
+    <row r="22" spans="1:12">
+      <c r="A22" s="1">
         <v>484487</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B22" t="s">
         <v>7</v>
       </c>
-      <c r="C19">
+      <c r="C22">
         <v>43</v>
       </c>
-      <c r="D19">
+      <c r="D22">
         <v>144</v>
       </c>
-      <c r="E19">
+      <c r="E22">
         <v>6</v>
       </c>
     </row>

--- a/Leetcode/!!!best_leetcoders.xlsx
+++ b/Leetcode/!!!best_leetcoders.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>Rank</t>
   </si>
@@ -163,6 +163,12 @@
   </si>
   <si>
     <t>https://github.com/VishnuBathla</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/u/hliu94/</t>
+  </si>
+  <si>
+    <t>https://github.com/hliuliu</t>
   </si>
 </sst>
 </file>
@@ -512,11 +518,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -771,53 +777,62 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
-        <v>16161</v>
+        <v>7887</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>49</v>
+      </c>
+      <c r="C11">
+        <v>728</v>
       </c>
       <c r="D11">
-        <v>191</v>
+        <v>44</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>895</v>
+        <v>553</v>
       </c>
       <c r="L11" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1">
-        <v>52374</v>
+        <v>16161</v>
       </c>
       <c r="B12" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12">
-        <v>605</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>61</v>
-      </c>
-      <c r="F12">
-        <v>7</v>
+        <v>191</v>
+      </c>
+      <c r="G12">
+        <v>895</v>
       </c>
       <c r="L12" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1">
-        <v>54012</v>
+        <v>52374</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C13">
-        <v>629</v>
+        <v>605</v>
+      </c>
+      <c r="D13">
+        <v>61</v>
       </c>
       <c r="F13">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L13" t="s">
         <v>39</v>
@@ -825,137 +840,154 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
+        <v>54012</v>
+      </c>
+      <c r="B14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14">
+        <v>629</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="L14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="1">
         <v>66186</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>46</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>583</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="1">
-        <v>62507</v>
-      </c>
-      <c r="B16" t="s">
-        <v>21</v>
-      </c>
-      <c r="G16">
-        <v>599</v>
-      </c>
-      <c r="I16">
-        <v>4</v>
-      </c>
-      <c r="L16" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1">
-        <v>85400</v>
+        <v>62507</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17">
-        <v>63</v>
-      </c>
-      <c r="K17">
-        <v>352</v>
+        <v>21</v>
+      </c>
+      <c r="G17">
+        <v>599</v>
+      </c>
+      <c r="I17">
+        <v>4</v>
       </c>
       <c r="L17" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1">
-        <v>99772</v>
+        <v>85400</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18">
-        <v>17</v>
-      </c>
-      <c r="G18">
-        <v>481</v>
+        <v>27</v>
+      </c>
+      <c r="C18">
+        <v>63</v>
+      </c>
+      <c r="K18">
+        <v>352</v>
       </c>
       <c r="L18" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1">
-        <v>143368</v>
+        <v>99772</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19">
-        <v>22</v>
-      </c>
-      <c r="D19">
-        <v>351</v>
+        <v>25</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="G19">
+        <v>481</v>
       </c>
       <c r="L19" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1">
-        <v>236858</v>
+        <v>143368</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C20">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D20">
-        <v>138</v>
-      </c>
-      <c r="G20">
-        <v>151</v>
+        <v>351</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="L20" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1">
-        <v>254342</v>
+        <v>236858</v>
       </c>
       <c r="B21" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>67</v>
       </c>
       <c r="D21">
-        <v>254</v>
-      </c>
-      <c r="E21">
-        <v>31</v>
-      </c>
-      <c r="F21">
-        <v>19</v>
+        <v>138</v>
+      </c>
+      <c r="G21">
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1">
+        <v>254342</v>
+      </c>
+      <c r="B22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22">
+        <v>254</v>
+      </c>
+      <c r="E22">
+        <v>31</v>
+      </c>
+      <c r="F22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1">
         <v>484487</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>7</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>43</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>144</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>6</v>
       </c>
     </row>

--- a/Leetcode/!!!best_leetcoders.xlsx
+++ b/Leetcode/!!!best_leetcoders.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
   <si>
     <t>Rank</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>https://github.com/hliuliu</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/u/Silvia42/</t>
   </si>
 </sst>
 </file>
@@ -518,11 +521,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N16" sqref="N16"/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -714,142 +717,151 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="4">
-        <v>2602</v>
+        <v>1762</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C8">
-        <v>15</v>
+        <v>56</v>
       </c>
       <c r="D8">
-        <v>1420</v>
+        <v>1625</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
       </c>
       <c r="F8">
-        <v>77</v>
+        <v>11</v>
+      </c>
+      <c r="K8">
+        <v>13</v>
       </c>
       <c r="L8" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="1">
-        <v>4194</v>
+      <c r="A9" s="4">
+        <v>2602</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="C9">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>1319</v>
-      </c>
-      <c r="G9">
-        <v>7</v>
-      </c>
-      <c r="I9">
-        <v>6</v>
+        <v>1420</v>
+      </c>
+      <c r="F9">
+        <v>77</v>
       </c>
       <c r="L9" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="1">
-        <v>5561</v>
+        <v>4194</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C10">
-        <v>60</v>
-      </c>
-      <c r="F10">
-        <v>46</v>
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>1319</v>
       </c>
       <c r="G10">
-        <v>1142</v>
+        <v>7</v>
+      </c>
+      <c r="I10">
+        <v>6</v>
       </c>
       <c r="L10" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
-        <v>7887</v>
+        <v>5561</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C11">
-        <v>728</v>
-      </c>
-      <c r="D11">
-        <v>44</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="G11">
-        <v>553</v>
+        <v>1142</v>
       </c>
       <c r="L11" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="1">
-        <v>16161</v>
+        <v>7887</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>49</v>
+      </c>
+      <c r="C12">
+        <v>728</v>
       </c>
       <c r="D12">
-        <v>191</v>
+        <v>44</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>895</v>
+        <v>553</v>
       </c>
       <c r="L12" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="1">
-        <v>52374</v>
+        <v>16161</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13">
-        <v>605</v>
+        <v>19</v>
       </c>
       <c r="D13">
-        <v>61</v>
-      </c>
-      <c r="F13">
-        <v>7</v>
+        <v>191</v>
+      </c>
+      <c r="G13">
+        <v>895</v>
       </c>
       <c r="L13" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
-        <v>54012</v>
+        <v>52374</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C14">
-        <v>629</v>
+        <v>605</v>
+      </c>
+      <c r="D14">
+        <v>61</v>
       </c>
       <c r="F14">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L14" t="s">
         <v>39</v>
@@ -857,137 +869,154 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1">
+        <v>54012</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>629</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="L15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
         <v>66186</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>46</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>583</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="1">
-        <v>62507</v>
-      </c>
-      <c r="B17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17">
-        <v>599</v>
-      </c>
-      <c r="I17">
-        <v>4</v>
-      </c>
-      <c r="L17" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1">
-        <v>85400</v>
+        <v>62507</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18">
-        <v>63</v>
-      </c>
-      <c r="K18">
-        <v>352</v>
+        <v>21</v>
+      </c>
+      <c r="G18">
+        <v>599</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
       </c>
       <c r="L18" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1">
-        <v>99772</v>
+        <v>85400</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19">
-        <v>17</v>
-      </c>
-      <c r="G19">
-        <v>481</v>
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <v>63</v>
+      </c>
+      <c r="K19">
+        <v>352</v>
       </c>
       <c r="L19" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1">
-        <v>143368</v>
+        <v>99772</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20">
-        <v>22</v>
-      </c>
-      <c r="D20">
-        <v>351</v>
+        <v>25</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="G20">
+        <v>481</v>
       </c>
       <c r="L20" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1">
-        <v>236858</v>
+        <v>143368</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C21">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D21">
-        <v>138</v>
-      </c>
-      <c r="G21">
-        <v>151</v>
+        <v>351</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1">
-        <v>254342</v>
+        <v>236858</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>67</v>
       </c>
       <c r="D22">
-        <v>254</v>
-      </c>
-      <c r="E22">
-        <v>31</v>
-      </c>
-      <c r="F22">
-        <v>19</v>
+        <v>138</v>
+      </c>
+      <c r="G22">
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1">
+        <v>254342</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23">
+        <v>254</v>
+      </c>
+      <c r="E23">
+        <v>31</v>
+      </c>
+      <c r="F23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1">
         <v>484487</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>7</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>43</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>144</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>6</v>
       </c>
     </row>

--- a/Leetcode/!!!best_leetcoders.xlsx
+++ b/Leetcode/!!!best_leetcoders.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="28755" windowHeight="12780"/>
@@ -11,12 +11,12 @@
     <sheet name="GirHun" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
   <si>
     <t>Rank</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>https://leetcode.com/u/Silvia42/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/u/th2do/</t>
   </si>
 </sst>
 </file>
@@ -521,11 +524,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -849,36 +852,42 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
-        <v>52374</v>
+        <v>47373</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C14">
-        <v>605</v>
+        <v>55</v>
       </c>
       <c r="D14">
-        <v>61</v>
+        <v>607</v>
       </c>
       <c r="F14">
-        <v>7</v>
-      </c>
-      <c r="L14" t="s">
-        <v>39</v>
+        <v>49</v>
+      </c>
+      <c r="G14">
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1">
-        <v>54012</v>
+        <v>52374</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C15">
-        <v>629</v>
+        <v>605</v>
+      </c>
+      <c r="D15">
+        <v>61</v>
       </c>
       <c r="F15">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="I15">
+        <v>156</v>
       </c>
       <c r="L15" t="s">
         <v>39</v>
@@ -886,137 +895,154 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1">
+        <v>54012</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>629</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="L16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1">
         <v>66186</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>46</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>583</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1">
-        <v>62507</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18">
-        <v>599</v>
-      </c>
-      <c r="I18">
-        <v>4</v>
-      </c>
-      <c r="L18" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1">
-        <v>85400</v>
+        <v>62507</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19">
-        <v>63</v>
-      </c>
-      <c r="K19">
-        <v>352</v>
+        <v>21</v>
+      </c>
+      <c r="G19">
+        <v>599</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
       </c>
       <c r="L19" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1">
-        <v>99772</v>
+        <v>85400</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20">
-        <v>17</v>
-      </c>
-      <c r="G20">
-        <v>481</v>
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <v>63</v>
+      </c>
+      <c r="K20">
+        <v>352</v>
       </c>
       <c r="L20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1">
-        <v>143368</v>
+        <v>99772</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21">
-        <v>22</v>
-      </c>
-      <c r="D21">
-        <v>351</v>
+        <v>25</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="G21">
+        <v>481</v>
       </c>
       <c r="L21" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1">
-        <v>236858</v>
+        <v>143368</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C22">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>138</v>
-      </c>
-      <c r="G22">
-        <v>151</v>
+        <v>351</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1">
-        <v>254342</v>
+        <v>236858</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>67</v>
       </c>
       <c r="D23">
-        <v>254</v>
-      </c>
-      <c r="E23">
-        <v>31</v>
-      </c>
-      <c r="F23">
-        <v>19</v>
+        <v>138</v>
+      </c>
+      <c r="G23">
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1">
+        <v>254342</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24">
+        <v>254</v>
+      </c>
+      <c r="E24">
+        <v>31</v>
+      </c>
+      <c r="F24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1">
         <v>484487</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>7</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>43</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>144</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>6</v>
       </c>
     </row>

--- a/Leetcode/!!!best_leetcoders.xlsx
+++ b/Leetcode/!!!best_leetcoders.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
   <si>
     <t>Rank</t>
   </si>
@@ -175,6 +175,9 @@
   </si>
   <si>
     <t>https://leetcode.com/u/th2do/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/u/EgorMaral/</t>
   </si>
 </sst>
 </file>
@@ -524,11 +527,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -852,59 +855,65 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
-        <v>47373</v>
+        <v>23745</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C14">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="D14">
-        <v>607</v>
+        <v>792</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>49</v>
-      </c>
-      <c r="G14">
-        <v>275</v>
+        <v>78</v>
+      </c>
+      <c r="L14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1">
-        <v>52374</v>
+        <v>47373</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C15">
-        <v>605</v>
+        <v>55</v>
       </c>
       <c r="D15">
-        <v>61</v>
+        <v>607</v>
       </c>
       <c r="F15">
-        <v>7</v>
-      </c>
-      <c r="I15">
-        <v>156</v>
-      </c>
-      <c r="L15" t="s">
-        <v>39</v>
+        <v>49</v>
+      </c>
+      <c r="G15">
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1">
-        <v>54012</v>
+        <v>52374</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C16">
-        <v>629</v>
+        <v>605</v>
+      </c>
+      <c r="D16">
+        <v>61</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="I16">
+        <v>156</v>
       </c>
       <c r="L16" t="s">
         <v>39</v>
@@ -912,137 +921,154 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1">
+        <v>54012</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>629</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="L17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1">
         <v>66186</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>46</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>583</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1">
-        <v>62507</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19">
-        <v>599</v>
-      </c>
-      <c r="I19">
-        <v>4</v>
-      </c>
-      <c r="L19" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1">
-        <v>85400</v>
+        <v>62507</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20">
-        <v>63</v>
-      </c>
-      <c r="K20">
-        <v>352</v>
+        <v>21</v>
+      </c>
+      <c r="G20">
+        <v>599</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
       </c>
       <c r="L20" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1">
-        <v>99772</v>
+        <v>85400</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21">
-        <v>17</v>
-      </c>
-      <c r="G21">
-        <v>481</v>
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>63</v>
+      </c>
+      <c r="K21">
+        <v>352</v>
       </c>
       <c r="L21" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1">
-        <v>143368</v>
+        <v>99772</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22">
-        <v>22</v>
-      </c>
-      <c r="D22">
-        <v>351</v>
+        <v>25</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="G22">
+        <v>481</v>
       </c>
       <c r="L22" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1">
-        <v>236858</v>
+        <v>143368</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C23">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>138</v>
-      </c>
-      <c r="G23">
-        <v>151</v>
+        <v>351</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1">
-        <v>254342</v>
+        <v>236858</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <v>67</v>
       </c>
       <c r="D24">
-        <v>254</v>
-      </c>
-      <c r="E24">
-        <v>31</v>
-      </c>
-      <c r="F24">
-        <v>19</v>
+        <v>138</v>
+      </c>
+      <c r="G24">
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1">
+        <v>254342</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25">
+        <v>254</v>
+      </c>
+      <c r="E25">
+        <v>31</v>
+      </c>
+      <c r="F25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1">
         <v>484487</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>7</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>43</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>144</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>6</v>
       </c>
     </row>

--- a/Leetcode/!!!best_leetcoders.xlsx
+++ b/Leetcode/!!!best_leetcoders.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
   <si>
     <t>Rank</t>
   </si>
@@ -178,6 +178,9 @@
   </si>
   <si>
     <t>https://leetcode.com/u/EgorMaral/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/u/shatunov-pv/</t>
   </si>
 </sst>
 </file>
@@ -207,12 +210,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -227,12 +236,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -527,11 +537,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M26"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M14" sqref="M14"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -855,82 +865,82 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
-        <v>23745</v>
-      </c>
-      <c r="B14" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14">
-        <v>7</v>
+        <v>22416</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>54</v>
       </c>
       <c r="D14">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="F14">
-        <v>78</v>
-      </c>
-      <c r="L14" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="1">
-        <v>47373</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
+        <v>23745</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>53</v>
       </c>
       <c r="C15">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="D15">
-        <v>607</v>
+        <v>792</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>49</v>
-      </c>
-      <c r="G15">
-        <v>275</v>
+        <v>78</v>
+      </c>
+      <c r="L15" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="1">
-        <v>52374</v>
+        <v>47373</v>
       </c>
       <c r="B16" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C16">
-        <v>605</v>
+        <v>55</v>
       </c>
       <c r="D16">
-        <v>61</v>
+        <v>607</v>
       </c>
       <c r="F16">
-        <v>7</v>
-      </c>
-      <c r="I16">
-        <v>156</v>
-      </c>
-      <c r="L16" t="s">
-        <v>39</v>
+        <v>49</v>
+      </c>
+      <c r="G16">
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1">
-        <v>54012</v>
+        <v>52374</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C17">
-        <v>629</v>
+        <v>605</v>
+      </c>
+      <c r="D17">
+        <v>61</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="I17">
+        <v>156</v>
       </c>
       <c r="L17" t="s">
         <v>39</v>
@@ -938,137 +948,154 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1">
+        <v>54012</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>629</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="L18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1">
         <v>66186</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>46</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>583</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="1">
-        <v>62507</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20">
-        <v>599</v>
-      </c>
-      <c r="I20">
-        <v>4</v>
-      </c>
-      <c r="L20" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1">
-        <v>85400</v>
+        <v>62507</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21">
-        <v>63</v>
-      </c>
-      <c r="K21">
-        <v>352</v>
+        <v>21</v>
+      </c>
+      <c r="G21">
+        <v>599</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
       </c>
       <c r="L21" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1">
-        <v>99772</v>
+        <v>85400</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22">
-        <v>17</v>
-      </c>
-      <c r="G22">
-        <v>481</v>
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>63</v>
+      </c>
+      <c r="K22">
+        <v>352</v>
       </c>
       <c r="L22" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1">
-        <v>143368</v>
+        <v>99772</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23">
-        <v>22</v>
-      </c>
-      <c r="D23">
-        <v>351</v>
+        <v>25</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="G23">
+        <v>481</v>
       </c>
       <c r="L23" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1">
-        <v>236858</v>
+        <v>143368</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C24">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>138</v>
-      </c>
-      <c r="G24">
-        <v>151</v>
+        <v>351</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1">
-        <v>254342</v>
+        <v>236858</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>67</v>
       </c>
       <c r="D25">
-        <v>254</v>
-      </c>
-      <c r="E25">
-        <v>31</v>
-      </c>
-      <c r="F25">
-        <v>19</v>
+        <v>138</v>
+      </c>
+      <c r="G25">
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1">
+        <v>254342</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26">
+        <v>254</v>
+      </c>
+      <c r="E26">
+        <v>31</v>
+      </c>
+      <c r="F26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1">
         <v>484487</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>7</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>43</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>144</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>6</v>
       </c>
     </row>

--- a/Leetcode/!!!best_leetcoders.xlsx
+++ b/Leetcode/!!!best_leetcoders.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
   <si>
     <t>Rank</t>
   </si>
@@ -181,6 +181,18 @@
   </si>
   <si>
     <t>https://leetcode.com/u/shatunov-pv/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/u/mslinTW/</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Easy</t>
   </si>
 </sst>
 </file>
@@ -537,565 +549,615 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="O26" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="34" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="15" max="15" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:16">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:16">
       <c r="A2" s="4">
         <v>117</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2">
         <v>2571</v>
       </c>
-      <c r="E2" s="2">
+      <c r="H2" s="2">
         <v>18</v>
       </c>
-      <c r="F2">
+      <c r="I2">
         <v>91</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:16">
       <c r="A3" s="4">
         <v>214</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2">
+      <c r="G3" s="2"/>
+      <c r="H3" s="2">
         <v>16</v>
       </c>
-      <c r="F3">
+      <c r="I3">
         <v>77</v>
       </c>
-      <c r="G3">
+      <c r="J3">
         <v>2383</v>
       </c>
-      <c r="M3" t="s">
+      <c r="P3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:16">
       <c r="A4" s="4">
         <v>282</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2">
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2">
         <v>2349</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4">
+      <c r="H4" s="2"/>
+      <c r="I4">
         <v>37</v>
       </c>
-      <c r="K4">
+      <c r="N4">
         <v>34</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>36</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>296</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="I5">
         <v>243</v>
       </c>
-      <c r="H5">
+      <c r="K5">
         <v>230</v>
       </c>
-      <c r="I5">
+      <c r="L5">
         <v>37</v>
       </c>
-      <c r="J5">
+      <c r="M5">
         <v>1993</v>
       </c>
-      <c r="L5" t="s">
+      <c r="O5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:16">
       <c r="A6" s="4">
         <v>736</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
       </c>
-      <c r="C6">
+      <c r="F6">
         <v>2</v>
       </c>
-      <c r="D6">
+      <c r="G6">
         <v>1939</v>
       </c>
-      <c r="F6">
+      <c r="I6">
         <v>63</v>
       </c>
-      <c r="K6">
+      <c r="N6">
         <v>44</v>
       </c>
-      <c r="L6" t="s">
+      <c r="O6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:16">
       <c r="A7" s="4">
         <v>857</v>
       </c>
       <c r="B7" t="s">
         <v>47</v>
       </c>
-      <c r="C7">
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="G7">
         <v>1881</v>
       </c>
-      <c r="E7">
+      <c r="H7">
         <v>62</v>
       </c>
-      <c r="F7">
+      <c r="I7">
         <v>8</v>
       </c>
-      <c r="L7" t="s">
+      <c r="O7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:16">
       <c r="A8" s="4">
         <v>1762</v>
       </c>
       <c r="B8" t="s">
         <v>51</v>
       </c>
-      <c r="C8">
+      <c r="F8">
         <v>56</v>
       </c>
-      <c r="D8">
+      <c r="G8">
         <v>1625</v>
       </c>
-      <c r="E8">
+      <c r="H8">
         <v>4</v>
       </c>
-      <c r="F8">
+      <c r="I8">
         <v>11</v>
       </c>
-      <c r="K8">
+      <c r="N8">
         <v>13</v>
       </c>
-      <c r="L8" t="s">
+      <c r="O8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:16">
       <c r="A9" s="4">
         <v>2602</v>
       </c>
       <c r="B9" t="s">
         <v>38</v>
       </c>
-      <c r="C9">
+      <c r="F9">
         <v>15</v>
       </c>
-      <c r="D9">
+      <c r="G9">
         <v>1420</v>
       </c>
-      <c r="F9">
+      <c r="I9">
         <v>77</v>
       </c>
-      <c r="L9" t="s">
+      <c r="O9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>4194</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10">
+      <c r="F10">
         <v>6</v>
       </c>
-      <c r="D10">
+      <c r="G10">
         <v>1319</v>
       </c>
-      <c r="G10">
+      <c r="J10">
         <v>7</v>
       </c>
-      <c r="I10">
+      <c r="L10">
         <v>6</v>
       </c>
-      <c r="L10" t="s">
+      <c r="O10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>5561</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
       </c>
-      <c r="C11">
+      <c r="F11">
         <v>60</v>
       </c>
-      <c r="F11">
+      <c r="I11">
         <v>46</v>
       </c>
-      <c r="G11">
+      <c r="J11">
         <v>1142</v>
       </c>
-      <c r="L11" t="s">
+      <c r="O11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>7887</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
       </c>
-      <c r="C12">
+      <c r="F12">
         <v>728</v>
       </c>
-      <c r="D12">
+      <c r="G12">
         <v>44</v>
       </c>
-      <c r="E12">
+      <c r="H12">
         <v>1</v>
       </c>
-      <c r="F12">
+      <c r="I12">
         <v>2</v>
       </c>
-      <c r="G12">
+      <c r="J12">
         <v>553</v>
       </c>
-      <c r="L12" t="s">
+      <c r="O12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>16161</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
-      <c r="D13">
+      <c r="G13">
         <v>191</v>
       </c>
-      <c r="G13">
+      <c r="J13">
         <v>895</v>
       </c>
-      <c r="L13" t="s">
+      <c r="O13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:16">
       <c r="A14" s="1">
         <v>22416</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="D14">
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="G14">
         <v>791</v>
       </c>
-      <c r="E14">
+      <c r="H14">
         <v>15</v>
       </c>
-      <c r="F14">
+      <c r="I14">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:16">
       <c r="A15" s="1">
         <v>23745</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15">
         <v>7</v>
       </c>
-      <c r="D15">
+      <c r="G15">
         <v>792</v>
       </c>
-      <c r="E15">
+      <c r="H15">
         <v>1</v>
       </c>
-      <c r="F15">
+      <c r="I15">
         <v>78</v>
       </c>
-      <c r="L15" t="s">
+      <c r="O15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:16">
       <c r="A16" s="1">
         <v>47373</v>
       </c>
       <c r="B16" t="s">
         <v>52</v>
       </c>
-      <c r="C16">
+      <c r="F16">
         <v>55</v>
       </c>
-      <c r="D16">
+      <c r="G16">
         <v>607</v>
       </c>
-      <c r="F16">
+      <c r="I16">
         <v>49</v>
       </c>
-      <c r="G16">
+      <c r="J16">
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>52374</v>
       </c>
       <c r="B17" t="s">
         <v>44</v>
       </c>
-      <c r="C17">
+      <c r="F17">
         <v>605</v>
       </c>
-      <c r="D17">
+      <c r="G17">
         <v>61</v>
       </c>
-      <c r="F17">
+      <c r="I17">
         <v>7</v>
       </c>
-      <c r="I17">
+      <c r="L17">
         <v>156</v>
       </c>
-      <c r="L17" t="s">
+      <c r="O17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>54012</v>
       </c>
       <c r="B18" t="s">
         <v>40</v>
       </c>
-      <c r="C18">
+      <c r="F18">
         <v>629</v>
       </c>
-      <c r="F18">
+      <c r="I18">
         <v>6</v>
       </c>
-      <c r="L18" t="s">
+      <c r="O18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>66186</v>
       </c>
       <c r="B19" t="s">
         <v>46</v>
       </c>
-      <c r="D19">
+      <c r="G19">
         <v>583</v>
       </c>
-      <c r="F19">
+      <c r="I19">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>62507</v>
       </c>
       <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="G21">
+      <c r="J21">
         <v>599</v>
       </c>
-      <c r="I21">
+      <c r="L21">
         <v>4</v>
       </c>
-      <c r="L21" t="s">
+      <c r="O21" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
+        <v>74631</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22">
+        <v>98</v>
+      </c>
+      <c r="D22">
+        <v>189</v>
+      </c>
+      <c r="E22">
+        <v>307</v>
+      </c>
+      <c r="F22">
+        <v>591</v>
+      </c>
+      <c r="O22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="1">
         <v>85400</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>27</v>
       </c>
-      <c r="C22">
+      <c r="F23">
         <v>63</v>
       </c>
-      <c r="K22">
+      <c r="N23">
         <v>352</v>
       </c>
-      <c r="L22" t="s">
+      <c r="O23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="1">
+    <row r="24" spans="1:15">
+      <c r="A24" s="1">
         <v>99772</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>25</v>
       </c>
-      <c r="F23">
+      <c r="I24">
         <v>17</v>
       </c>
-      <c r="G23">
+      <c r="J24">
         <v>481</v>
       </c>
-      <c r="L23" t="s">
+      <c r="O24" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="1">
+    <row r="25" spans="1:15">
+      <c r="A25" s="1">
         <v>143368</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>45</v>
       </c>
-      <c r="C24">
+      <c r="F25">
         <v>22</v>
       </c>
-      <c r="D24">
+      <c r="G25">
         <v>351</v>
       </c>
-      <c r="F24">
+      <c r="I25">
         <v>1</v>
       </c>
-      <c r="L24" t="s">
+      <c r="O25" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="1">
+    <row r="26" spans="1:15">
+      <c r="A26" s="1">
         <v>236858</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>30</v>
       </c>
-      <c r="C25">
+      <c r="F26">
         <v>67</v>
       </c>
-      <c r="D25">
+      <c r="G26">
         <v>138</v>
       </c>
-      <c r="G25">
+      <c r="J26">
         <v>151</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="1">
+    <row r="27" spans="1:15">
+      <c r="A27" s="1">
         <v>254342</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>37</v>
       </c>
-      <c r="D26">
+      <c r="G27">
         <v>254</v>
       </c>
-      <c r="E26">
+      <c r="H27">
         <v>31</v>
       </c>
-      <c r="F26">
+      <c r="I27">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="1">
+    <row r="28" spans="1:15">
+      <c r="A28" s="1">
         <v>484487</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>7</v>
       </c>
-      <c r="C27">
+      <c r="F28">
         <v>43</v>
       </c>
-      <c r="D27">
+      <c r="G28">
         <v>144</v>
       </c>
-      <c r="E27">
+      <c r="H28">
         <v>6</v>
       </c>
     </row>

--- a/Leetcode/!!!best_leetcoders.xlsx
+++ b/Leetcode/!!!best_leetcoders.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="120" windowWidth="28755" windowHeight="12780"/>
@@ -11,12 +11,12 @@
     <sheet name="GirHun" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>Rank</t>
   </si>
@@ -174,25 +174,10 @@
     <t>https://leetcode.com/u/Silvia42/</t>
   </si>
   <si>
-    <t>https://leetcode.com/u/th2do/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/u/EgorMaral/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/u/shatunov-pv/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/u/mslinTW/</t>
-  </si>
-  <si>
-    <t>Hard</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Easy</t>
+    <t>https://leetcode.com/u/s-dzucev2000/</t>
+  </si>
+  <si>
+    <t>https://github.com/Soslan5000</t>
   </si>
 </sst>
 </file>
@@ -222,18 +207,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -248,13 +227,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -549,616 +527,520 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O26" sqref="O26"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" customWidth="1"/>
-    <col min="15" max="15" width="34" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:13">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
       <c r="I1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="K1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="L1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="M1" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O1" t="s">
-        <v>11</v>
-      </c>
-      <c r="P1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:13">
       <c r="A2" s="4">
         <v>117</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2">
+      <c r="C2" s="2"/>
+      <c r="D2" s="2">
         <v>2571</v>
       </c>
-      <c r="H2" s="2">
+      <c r="E2" s="2">
         <v>18</v>
       </c>
-      <c r="I2">
+      <c r="F2">
         <v>91</v>
       </c>
-      <c r="O2" t="s">
+      <c r="L2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:13">
       <c r="A3" s="4">
         <v>214</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="2">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2">
         <v>16</v>
       </c>
-      <c r="I3">
+      <c r="F3">
         <v>77</v>
       </c>
-      <c r="J3">
+      <c r="G3">
         <v>2383</v>
       </c>
-      <c r="P3" t="s">
+      <c r="M3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:13">
       <c r="A4" s="4">
         <v>282</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2">
+      <c r="C4" s="2"/>
+      <c r="D4" s="2">
         <v>2349</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4">
+      <c r="E4" s="2"/>
+      <c r="F4">
         <v>37</v>
       </c>
-      <c r="N4">
+      <c r="K4">
         <v>34</v>
       </c>
-      <c r="O4" t="s">
+      <c r="L4" t="s">
         <v>36</v>
       </c>
-      <c r="P4" t="s">
+      <c r="M4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>296</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
+      <c r="F5">
+        <v>243</v>
+      </c>
+      <c r="H5">
+        <v>230</v>
+      </c>
       <c r="I5">
-        <v>243</v>
-      </c>
-      <c r="K5">
-        <v>230</v>
-      </c>
-      <c r="L5">
         <v>37</v>
       </c>
-      <c r="M5">
+      <c r="J5">
         <v>1993</v>
       </c>
-      <c r="O5" t="s">
+      <c r="L5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:13">
       <c r="A6" s="4">
         <v>736</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
       </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>1939</v>
+      </c>
       <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6">
-        <v>1939</v>
-      </c>
-      <c r="I6">
         <v>63</v>
       </c>
-      <c r="N6">
+      <c r="K6">
         <v>44</v>
       </c>
-      <c r="O6" t="s">
+      <c r="L6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:13">
       <c r="A7" s="4">
         <v>857</v>
       </c>
       <c r="B7" t="s">
         <v>47</v>
       </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1881</v>
+      </c>
+      <c r="E7">
+        <v>62</v>
+      </c>
       <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1881</v>
-      </c>
-      <c r="H7">
-        <v>62</v>
-      </c>
-      <c r="I7">
         <v>8</v>
       </c>
-      <c r="O7" t="s">
+      <c r="L7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:13">
       <c r="A8" s="4">
         <v>1762</v>
       </c>
       <c r="B8" t="s">
         <v>51</v>
       </c>
+      <c r="C8">
+        <v>56</v>
+      </c>
+      <c r="D8">
+        <v>1625</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
       <c r="F8">
-        <v>56</v>
-      </c>
-      <c r="G8">
-        <v>1625</v>
-      </c>
-      <c r="H8">
-        <v>4</v>
-      </c>
-      <c r="I8">
         <v>11</v>
       </c>
-      <c r="N8">
+      <c r="K8">
         <v>13</v>
       </c>
-      <c r="O8" t="s">
+      <c r="L8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:13">
       <c r="A9" s="4">
         <v>2602</v>
       </c>
       <c r="B9" t="s">
         <v>38</v>
       </c>
+      <c r="C9">
+        <v>15</v>
+      </c>
+      <c r="D9">
+        <v>1420</v>
+      </c>
       <c r="F9">
-        <v>15</v>
-      </c>
-      <c r="G9">
-        <v>1420</v>
-      </c>
-      <c r="I9">
         <v>77</v>
       </c>
-      <c r="O9" t="s">
+      <c r="L9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>4194</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="F10">
+      <c r="C10">
         <v>6</v>
       </c>
+      <c r="D10">
+        <v>1319</v>
+      </c>
       <c r="G10">
-        <v>1319</v>
-      </c>
-      <c r="J10">
         <v>7</v>
       </c>
-      <c r="L10">
+      <c r="I10">
         <v>6</v>
       </c>
-      <c r="O10" t="s">
+      <c r="L10" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>5561</v>
       </c>
       <c r="B11" t="s">
         <v>23</v>
       </c>
+      <c r="C11">
+        <v>60</v>
+      </c>
       <c r="F11">
-        <v>60</v>
-      </c>
-      <c r="I11">
         <v>46</v>
       </c>
-      <c r="J11">
+      <c r="G11">
         <v>1142</v>
       </c>
-      <c r="O11" t="s">
+      <c r="L11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>7887</v>
       </c>
       <c r="B12" t="s">
         <v>49</v>
       </c>
+      <c r="C12">
+        <v>728</v>
+      </c>
+      <c r="D12">
+        <v>44</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
       <c r="F12">
-        <v>728</v>
+        <v>2</v>
       </c>
       <c r="G12">
-        <v>44</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-      <c r="I12">
-        <v>2</v>
-      </c>
-      <c r="J12">
         <v>553</v>
       </c>
-      <c r="O12" t="s">
+      <c r="L12" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>16161</v>
       </c>
       <c r="B13" t="s">
         <v>19</v>
       </c>
+      <c r="D13">
+        <v>191</v>
+      </c>
       <c r="G13">
-        <v>191</v>
-      </c>
-      <c r="J13">
         <v>895</v>
       </c>
-      <c r="O13" t="s">
+      <c r="L13" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
-        <v>22416</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="G14">
-        <v>791</v>
-      </c>
-      <c r="H14">
-        <v>15</v>
-      </c>
-      <c r="I14">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
+        <v>52374</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14">
+        <v>605</v>
+      </c>
+      <c r="D14">
+        <v>61</v>
+      </c>
+      <c r="F14">
+        <v>7</v>
+      </c>
+      <c r="L14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
-        <v>23745</v>
-      </c>
-      <c r="B15" s="5" t="s">
+        <v>54012</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>629</v>
+      </c>
+      <c r="F15">
+        <v>6</v>
+      </c>
+      <c r="L15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="1">
+        <v>66186</v>
+      </c>
+      <c r="B16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16">
+        <v>583</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1">
+        <v>62507</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="G18">
+        <v>599</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="L18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1">
+        <v>85400</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19">
+        <v>63</v>
+      </c>
+      <c r="K19">
+        <v>352</v>
+      </c>
+      <c r="L19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1">
+        <v>99772</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20">
+        <v>17</v>
+      </c>
+      <c r="G20">
+        <v>481</v>
+      </c>
+      <c r="L20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1">
+        <v>143368</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21">
+        <v>22</v>
+      </c>
+      <c r="D21">
+        <v>351</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="L21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1">
+        <v>236858</v>
+      </c>
+      <c r="B22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22">
+        <v>67</v>
+      </c>
+      <c r="D22">
+        <v>138</v>
+      </c>
+      <c r="G22">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1">
+        <v>254342</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="D23">
+        <v>254</v>
+      </c>
+      <c r="E23">
+        <v>31</v>
+      </c>
+      <c r="F23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1">
+        <v>484487</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>43</v>
+      </c>
+      <c r="D24">
+        <v>144</v>
+      </c>
+      <c r="E24">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1">
+        <v>175109</v>
+      </c>
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27">
+        <v>347</v>
+      </c>
+      <c r="D27">
+        <v>251</v>
+      </c>
+      <c r="L27" t="s">
         <v>53</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15">
-        <v>7</v>
-      </c>
-      <c r="G15">
-        <v>792</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
-      </c>
-      <c r="I15">
-        <v>78</v>
-      </c>
-      <c r="O15" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="1">
-        <v>47373</v>
-      </c>
-      <c r="B16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16">
-        <v>55</v>
-      </c>
-      <c r="G16">
-        <v>607</v>
-      </c>
-      <c r="I16">
-        <v>49</v>
-      </c>
-      <c r="J16">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="1">
-        <v>52374</v>
-      </c>
-      <c r="B17" t="s">
-        <v>44</v>
-      </c>
-      <c r="F17">
-        <v>605</v>
-      </c>
-      <c r="G17">
-        <v>61</v>
-      </c>
-      <c r="I17">
-        <v>7</v>
-      </c>
-      <c r="L17">
-        <v>156</v>
-      </c>
-      <c r="O17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="1">
-        <v>54012</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F18">
-        <v>629</v>
-      </c>
-      <c r="I18">
-        <v>6</v>
-      </c>
-      <c r="O18" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="1">
-        <v>66186</v>
-      </c>
-      <c r="B19" t="s">
-        <v>46</v>
-      </c>
-      <c r="G19">
-        <v>583</v>
-      </c>
-      <c r="I19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="1">
-        <v>62507</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-      <c r="J21">
-        <v>599</v>
-      </c>
-      <c r="L21">
-        <v>4</v>
-      </c>
-      <c r="O21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="1">
-        <v>74631</v>
-      </c>
-      <c r="B22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22">
-        <v>98</v>
-      </c>
-      <c r="D22">
-        <v>189</v>
-      </c>
-      <c r="E22">
-        <v>307</v>
-      </c>
-      <c r="F22">
-        <v>591</v>
-      </c>
-      <c r="O22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="1">
-        <v>85400</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23">
-        <v>63</v>
-      </c>
-      <c r="N23">
-        <v>352</v>
-      </c>
-      <c r="O23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="1">
-        <v>99772</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="I24">
-        <v>17</v>
-      </c>
-      <c r="J24">
-        <v>481</v>
-      </c>
-      <c r="O24" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="1">
-        <v>143368</v>
-      </c>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="F25">
-        <v>22</v>
-      </c>
-      <c r="G25">
-        <v>351</v>
-      </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="O25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="1">
-        <v>236858</v>
-      </c>
-      <c r="B26" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26">
-        <v>67</v>
-      </c>
-      <c r="G26">
-        <v>138</v>
-      </c>
-      <c r="J26">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="1">
-        <v>254342</v>
-      </c>
-      <c r="B27" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27">
-        <v>254</v>
-      </c>
-      <c r="H27">
-        <v>31</v>
-      </c>
-      <c r="I27">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="1">
-        <v>484487</v>
-      </c>
-      <c r="B28" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28">
-        <v>43</v>
-      </c>
-      <c r="G28">
-        <v>144</v>
-      </c>
-      <c r="H28">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Leetcode/!!!best_leetcoders.xlsx
+++ b/Leetcode/!!!best_leetcoders.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
   <si>
     <t>Rank</t>
   </si>
@@ -178,6 +178,18 @@
   </si>
   <si>
     <t>https://github.com/Soslan5000</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/u/jyscao/</t>
+  </si>
+  <si>
+    <t>Easy</t>
+  </si>
+  <si>
+    <t>Med</t>
+  </si>
+  <si>
+    <t>Hard</t>
   </si>
 </sst>
 </file>
@@ -227,12 +239,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -527,11 +541,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -541,7 +555,7 @@
     <col min="12" max="12" width="34" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:16">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -581,8 +595,17 @@
       <c r="M1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="4">
         <v>117</v>
       </c>
@@ -603,7 +626,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:16">
       <c r="A3" s="4">
         <v>214</v>
       </c>
@@ -627,7 +650,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:16">
       <c r="A4" s="4">
         <v>282</v>
       </c>
@@ -652,7 +675,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>296</v>
       </c>
@@ -675,7 +698,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:16">
       <c r="A6" s="4">
         <v>736</v>
       </c>
@@ -698,7 +721,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:16">
       <c r="A7" s="4">
         <v>857</v>
       </c>
@@ -721,7 +744,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:16">
       <c r="A8" s="4">
         <v>1762</v>
       </c>
@@ -747,7 +770,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:16">
       <c r="A9" s="4">
         <v>2602</v>
       </c>
@@ -767,7 +790,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:16">
       <c r="A10" s="1">
         <v>4194</v>
       </c>
@@ -790,7 +813,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:16">
       <c r="A11" s="1">
         <v>5561</v>
       </c>
@@ -810,7 +833,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:16">
       <c r="A12" s="1">
         <v>7887</v>
       </c>
@@ -836,7 +859,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:16">
       <c r="A13" s="1">
         <v>16161</v>
       </c>
@@ -853,193 +876,213 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="1">
+    <row r="14" spans="1:16" s="6" customFormat="1">
+      <c r="A14" s="5">
+        <v>43281</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="6">
+        <v>724</v>
+      </c>
+      <c r="N14" s="6">
+        <v>187</v>
+      </c>
+      <c r="O14" s="6">
+        <v>387</v>
+      </c>
+      <c r="P14" s="6">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1">
         <v>52374</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>44</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>605</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>61</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>7</v>
-      </c>
-      <c r="L14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="1">
-        <v>54012</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15">
-        <v>629</v>
-      </c>
-      <c r="F15">
-        <v>6</v>
       </c>
       <c r="L15" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:16">
       <c r="A16" s="1">
+        <v>54012</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16">
+        <v>629</v>
+      </c>
+      <c r="F16">
+        <v>6</v>
+      </c>
+      <c r="L16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1">
         <v>66186</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>46</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>583</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1">
-        <v>62507</v>
-      </c>
-      <c r="B18" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18">
-        <v>599</v>
-      </c>
-      <c r="I18">
-        <v>4</v>
-      </c>
-      <c r="L18" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1">
-        <v>85400</v>
+        <v>62507</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19">
-        <v>63</v>
-      </c>
-      <c r="K19">
-        <v>352</v>
+        <v>21</v>
+      </c>
+      <c r="G19">
+        <v>599</v>
+      </c>
+      <c r="I19">
+        <v>4</v>
       </c>
       <c r="L19" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1">
-        <v>99772</v>
+        <v>85400</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20">
-        <v>17</v>
-      </c>
-      <c r="G20">
-        <v>481</v>
+        <v>27</v>
+      </c>
+      <c r="C20">
+        <v>63</v>
+      </c>
+      <c r="K20">
+        <v>352</v>
       </c>
       <c r="L20" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1">
-        <v>143368</v>
+        <v>99772</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21">
-        <v>22</v>
-      </c>
-      <c r="D21">
-        <v>351</v>
+        <v>25</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="G21">
+        <v>481</v>
       </c>
       <c r="L21" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1">
-        <v>236858</v>
+        <v>143368</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C22">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D22">
-        <v>138</v>
-      </c>
-      <c r="G22">
-        <v>151</v>
+        <v>351</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="L22" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1">
-        <v>254342</v>
+        <v>236858</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="C23">
+        <v>67</v>
       </c>
       <c r="D23">
-        <v>254</v>
-      </c>
-      <c r="E23">
-        <v>31</v>
-      </c>
-      <c r="F23">
-        <v>19</v>
+        <v>138</v>
+      </c>
+      <c r="G23">
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1">
+        <v>254342</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24">
+        <v>254</v>
+      </c>
+      <c r="E24">
+        <v>31</v>
+      </c>
+      <c r="F24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1">
         <v>484487</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>7</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>43</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>144</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="1">
+    <row r="28" spans="1:12">
+      <c r="A28" s="1">
         <v>175109</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>52</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>347</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>251</v>
       </c>
-      <c r="L27" t="s">
+      <c r="L28" t="s">
         <v>53</v>
       </c>
     </row>

--- a/Leetcode/!!!best_leetcoders.xlsx
+++ b/Leetcode/!!!best_leetcoders.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>Rank</t>
   </si>
@@ -190,6 +190,12 @@
   </si>
   <si>
     <t>Hard</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/u/Cocamo1337/</t>
+  </si>
+  <si>
+    <t>https://github.com/NoahCocamoP</t>
   </si>
 </sst>
 </file>
@@ -541,11 +547,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD14"/>
+      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -772,162 +778,168 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="4">
+        <v>1998</v>
+      </c>
+      <c r="B9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9">
+        <v>121</v>
+      </c>
+      <c r="F9">
+        <v>17</v>
+      </c>
+      <c r="H9">
+        <v>1457</v>
+      </c>
+      <c r="I9">
+        <v>316</v>
+      </c>
+      <c r="L9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="4">
         <v>2602</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>38</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>15</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>1420</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>77</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L10" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="1">
-        <v>4194</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>6</v>
-      </c>
-      <c r="D10">
-        <v>1319</v>
-      </c>
-      <c r="G10">
-        <v>7</v>
-      </c>
-      <c r="I10">
-        <v>6</v>
-      </c>
-      <c r="L10" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="1">
-        <v>5561</v>
+        <v>4194</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C11">
-        <v>60</v>
-      </c>
-      <c r="F11">
-        <v>46</v>
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>1319</v>
       </c>
       <c r="G11">
-        <v>1142</v>
+        <v>7</v>
+      </c>
+      <c r="I11">
+        <v>6</v>
       </c>
       <c r="L11" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1">
-        <v>7887</v>
+        <v>5561</v>
       </c>
       <c r="B12" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C12">
-        <v>728</v>
-      </c>
-      <c r="D12">
-        <v>44</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F12">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="G12">
-        <v>553</v>
+        <v>1142</v>
       </c>
       <c r="L12" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1">
+        <v>7887</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13">
+        <v>728</v>
+      </c>
+      <c r="D13">
+        <v>44</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>553</v>
+      </c>
+      <c r="L13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1">
         <v>16161</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>191</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>895</v>
       </c>
-      <c r="L13" t="s">
+      <c r="L14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:16" s="6" customFormat="1">
-      <c r="A14" s="5">
+    <row r="15" spans="1:16" s="6" customFormat="1">
+      <c r="A15" s="5">
         <v>43281</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B15" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C15" s="6">
         <v>724</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N15" s="6">
         <v>187</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O15" s="6">
         <v>387</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P15" s="6">
         <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="1">
-        <v>52374</v>
-      </c>
-      <c r="B15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15">
-        <v>605</v>
-      </c>
-      <c r="D15">
-        <v>61</v>
-      </c>
-      <c r="F15">
-        <v>7</v>
-      </c>
-      <c r="L15" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1">
-        <v>54012</v>
+        <v>52374</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C16">
-        <v>629</v>
+        <v>605</v>
+      </c>
+      <c r="D16">
+        <v>61</v>
       </c>
       <c r="F16">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L16" t="s">
         <v>39</v>
@@ -935,154 +947,171 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1">
+        <v>54012</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17">
+        <v>629</v>
+      </c>
+      <c r="F17">
+        <v>6</v>
+      </c>
+      <c r="L17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1">
         <v>66186</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>46</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>583</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19" s="1">
-        <v>62507</v>
-      </c>
-      <c r="B19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19">
-        <v>599</v>
-      </c>
-      <c r="I19">
-        <v>4</v>
-      </c>
-      <c r="L19" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1">
-        <v>85400</v>
+        <v>62507</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20">
-        <v>63</v>
-      </c>
-      <c r="K20">
-        <v>352</v>
+        <v>21</v>
+      </c>
+      <c r="G20">
+        <v>599</v>
+      </c>
+      <c r="I20">
+        <v>4</v>
       </c>
       <c r="L20" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1">
-        <v>99772</v>
+        <v>85400</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21">
-        <v>17</v>
-      </c>
-      <c r="G21">
-        <v>481</v>
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>63</v>
+      </c>
+      <c r="K21">
+        <v>352</v>
       </c>
       <c r="L21" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1">
-        <v>143368</v>
+        <v>99772</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22">
-        <v>22</v>
-      </c>
-      <c r="D22">
-        <v>351</v>
+        <v>25</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="G22">
+        <v>481</v>
       </c>
       <c r="L22" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1">
-        <v>236858</v>
+        <v>143368</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C23">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D23">
-        <v>138</v>
-      </c>
-      <c r="G23">
-        <v>151</v>
+        <v>351</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="L23" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1">
-        <v>254342</v>
+        <v>236858</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="C24">
+        <v>67</v>
       </c>
       <c r="D24">
-        <v>254</v>
-      </c>
-      <c r="E24">
-        <v>31</v>
-      </c>
-      <c r="F24">
-        <v>19</v>
+        <v>138</v>
+      </c>
+      <c r="G24">
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1">
+        <v>254342</v>
+      </c>
+      <c r="B25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25">
+        <v>254</v>
+      </c>
+      <c r="E25">
+        <v>31</v>
+      </c>
+      <c r="F25">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1">
         <v>484487</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>7</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>43</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>144</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="1">
+    <row r="29" spans="1:12">
+      <c r="A29" s="1">
         <v>175109</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>52</v>
       </c>
-      <c r="C28">
+      <c r="C29">
         <v>347</v>
       </c>
-      <c r="D28">
+      <c r="D29">
         <v>251</v>
       </c>
-      <c r="L28" t="s">
+      <c r="L29" t="s">
         <v>53</v>
       </c>
     </row>

--- a/Leetcode/!!!best_leetcoders.xlsx
+++ b/Leetcode/!!!best_leetcoders.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
   <si>
     <t>Rank</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>https://github.com/NoahCocamoP</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/u/Finesse/</t>
+  </si>
+  <si>
+    <t>https://github.com/Finesse</t>
   </si>
 </sst>
 </file>
@@ -547,11 +553,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P29"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M8" sqref="M8"/>
+      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -905,58 +911,58 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="6" customFormat="1">
-      <c r="A15" s="5">
+    <row r="15" spans="1:16">
+      <c r="A15" s="1">
+        <v>28379</v>
+      </c>
+      <c r="B15" t="s">
+        <v>60</v>
+      </c>
+      <c r="D15">
+        <v>678</v>
+      </c>
+      <c r="F15">
+        <v>27</v>
+      </c>
+      <c r="L15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="6" customFormat="1">
+      <c r="A16" s="5">
         <v>43281</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B16" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C16" s="6">
         <v>724</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N16" s="6">
         <v>187</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O16" s="6">
         <v>387</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P16" s="6">
         <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="1">
-        <v>52374</v>
-      </c>
-      <c r="B16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16">
-        <v>605</v>
-      </c>
-      <c r="D16">
-        <v>61</v>
-      </c>
-      <c r="F16">
-        <v>7</v>
-      </c>
-      <c r="L16" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1">
-        <v>54012</v>
+        <v>52374</v>
       </c>
       <c r="B17" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C17">
-        <v>629</v>
+        <v>605</v>
+      </c>
+      <c r="D17">
+        <v>61</v>
       </c>
       <c r="F17">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L17" t="s">
         <v>39</v>
@@ -964,154 +970,171 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1">
+        <v>54012</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>629</v>
+      </c>
+      <c r="F18">
+        <v>6</v>
+      </c>
+      <c r="L18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1">
         <v>66186</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>46</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>583</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" s="1">
-        <v>62507</v>
-      </c>
-      <c r="B20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G20">
-        <v>599</v>
-      </c>
-      <c r="I20">
-        <v>4</v>
-      </c>
-      <c r="L20" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1">
-        <v>85400</v>
+        <v>62507</v>
       </c>
       <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21">
-        <v>63</v>
-      </c>
-      <c r="K21">
-        <v>352</v>
+        <v>21</v>
+      </c>
+      <c r="G21">
+        <v>599</v>
+      </c>
+      <c r="I21">
+        <v>4</v>
       </c>
       <c r="L21" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1">
-        <v>99772</v>
+        <v>85400</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22">
-        <v>17</v>
-      </c>
-      <c r="G22">
-        <v>481</v>
+        <v>27</v>
+      </c>
+      <c r="C22">
+        <v>63</v>
+      </c>
+      <c r="K22">
+        <v>352</v>
       </c>
       <c r="L22" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1">
-        <v>143368</v>
+        <v>99772</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23">
-        <v>22</v>
-      </c>
-      <c r="D23">
-        <v>351</v>
+        <v>25</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="G23">
+        <v>481</v>
       </c>
       <c r="L23" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1">
-        <v>236858</v>
+        <v>143368</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C24">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D24">
-        <v>138</v>
-      </c>
-      <c r="G24">
-        <v>151</v>
+        <v>351</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="L24" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1">
-        <v>254342</v>
+        <v>236858</v>
       </c>
       <c r="B25" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="C25">
+        <v>67</v>
       </c>
       <c r="D25">
-        <v>254</v>
-      </c>
-      <c r="E25">
-        <v>31</v>
-      </c>
-      <c r="F25">
-        <v>19</v>
+        <v>138</v>
+      </c>
+      <c r="G25">
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1">
+        <v>254342</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26">
+        <v>254</v>
+      </c>
+      <c r="E26">
+        <v>31</v>
+      </c>
+      <c r="F26">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1">
         <v>484487</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>7</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>43</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>144</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
-      <c r="A29" s="1">
+    <row r="30" spans="1:12">
+      <c r="A30" s="1">
         <v>175109</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>52</v>
       </c>
-      <c r="C29">
+      <c r="C30">
         <v>347</v>
       </c>
-      <c r="D29">
+      <c r="D30">
         <v>251</v>
       </c>
-      <c r="L29" t="s">
+      <c r="L30" t="s">
         <v>53</v>
       </c>
     </row>

--- a/Leetcode/!!!best_leetcoders.xlsx
+++ b/Leetcode/!!!best_leetcoders.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
   <si>
     <t>Rank</t>
   </si>
@@ -202,6 +202,12 @@
   </si>
   <si>
     <t>https://github.com/Finesse</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/u/RayyanAshraf/</t>
+  </si>
+  <si>
+    <t>https://github.com/etsryn</t>
   </si>
 </sst>
 </file>
@@ -553,11 +559,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P30"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L16" sqref="L16"/>
+      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1035,106 +1041,126 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1">
-        <v>99772</v>
+        <v>87082</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>62</v>
+      </c>
+      <c r="D23">
+        <v>287</v>
+      </c>
+      <c r="E23">
+        <v>15</v>
       </c>
       <c r="F23">
-        <v>17</v>
-      </c>
-      <c r="G23">
-        <v>481</v>
+        <v>58</v>
       </c>
       <c r="L23" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1">
-        <v>143368</v>
+        <v>99772</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C24">
-        <v>22</v>
-      </c>
-      <c r="D24">
-        <v>351</v>
+        <v>25</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>17</v>
+      </c>
+      <c r="G24">
+        <v>481</v>
       </c>
       <c r="L24" t="s">
-        <v>39</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1">
-        <v>236858</v>
+        <v>143368</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C25">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D25">
-        <v>138</v>
-      </c>
-      <c r="G25">
-        <v>151</v>
+        <v>351</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="L25" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1">
-        <v>254342</v>
+        <v>236858</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="C26">
+        <v>67</v>
       </c>
       <c r="D26">
-        <v>254</v>
-      </c>
-      <c r="E26">
-        <v>31</v>
-      </c>
-      <c r="F26">
-        <v>19</v>
+        <v>138</v>
+      </c>
+      <c r="G26">
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1">
+        <v>254342</v>
+      </c>
+      <c r="B27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27">
+        <v>254</v>
+      </c>
+      <c r="E27">
+        <v>31</v>
+      </c>
+      <c r="F27">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1">
         <v>484487</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>7</v>
       </c>
-      <c r="C27">
+      <c r="C28">
         <v>43</v>
       </c>
-      <c r="D27">
+      <c r="D28">
         <v>144</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
-      <c r="A30" s="1">
+    <row r="31" spans="1:12">
+      <c r="A31" s="1">
         <v>175109</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>52</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>347</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>251</v>
       </c>
-      <c r="L30" t="s">
+      <c r="L31" t="s">
         <v>53</v>
       </c>
     </row>

--- a/Leetcode/!!!best_leetcoders.xlsx
+++ b/Leetcode/!!!best_leetcoders.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
   <si>
     <t>Rank</t>
   </si>
@@ -208,6 +208,15 @@
   </si>
   <si>
     <t>https://github.com/etsryn</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/u/ed3642dev/</t>
+  </si>
+  <si>
+    <t>https://github.com/ed3642</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/u/StefanPochmann/</t>
   </si>
 </sst>
 </file>
@@ -559,11 +568,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L23" sqref="L23"/>
+      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -934,233 +943,276 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="6" customFormat="1">
-      <c r="A16" s="5">
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>35010</v>
+      </c>
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16">
+        <v>658</v>
+      </c>
+      <c r="D16">
+        <v>217</v>
+      </c>
+      <c r="G16">
+        <v>272</v>
+      </c>
+      <c r="I16">
+        <v>201</v>
+      </c>
+      <c r="L16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="6" customFormat="1">
+      <c r="A17" s="5">
         <v>43281</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B17" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C17" s="6">
         <v>724</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N17" s="6">
         <v>187</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O17" s="6">
         <v>387</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P17" s="6">
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
-      <c r="A17" s="1">
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
         <v>52374</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>44</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>605</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>61</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>7</v>
-      </c>
-      <c r="L17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18" s="1">
-        <v>54012</v>
-      </c>
-      <c r="B18" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18">
-        <v>629</v>
-      </c>
-      <c r="F18">
-        <v>6</v>
       </c>
       <c r="L18" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
+        <v>54012</v>
+      </c>
+      <c r="B19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19">
+        <v>629</v>
+      </c>
+      <c r="F19">
+        <v>6</v>
+      </c>
+      <c r="L19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="1">
         <v>66186</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>46</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>583</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
-      <c r="A21" s="1">
+    <row r="22" spans="1:16">
+      <c r="A22" s="1">
         <v>62507</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>21</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>599</v>
       </c>
-      <c r="I21">
+      <c r="I22">
         <v>4</v>
       </c>
-      <c r="L21" t="s">
+      <c r="L22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
-      <c r="A22" s="1">
+    <row r="23" spans="1:16">
+      <c r="A23" s="1">
         <v>85400</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>27</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>63</v>
       </c>
-      <c r="K22">
+      <c r="K23">
         <v>352</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L23" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
-      <c r="A23" s="1">
+    <row r="24" spans="1:16">
+      <c r="A24" s="1">
         <v>87082</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>62</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>287</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>15</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <v>58</v>
       </c>
-      <c r="L23" t="s">
+      <c r="L24" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
-      <c r="A24" s="1">
+    <row r="25" spans="1:16">
+      <c r="A25" s="1">
         <v>99772</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>25</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <v>17</v>
       </c>
-      <c r="G24">
+      <c r="G25">
         <v>481</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
-      <c r="A25" s="1">
+    <row r="26" spans="1:16">
+      <c r="A26" s="1">
+        <v>112190</v>
+      </c>
+      <c r="B26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26">
+        <v>499</v>
+      </c>
+      <c r="H26">
+        <v>46</v>
+      </c>
+      <c r="L26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
+      <c r="A27" s="1">
         <v>143368</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B27" t="s">
         <v>45</v>
       </c>
-      <c r="C25">
+      <c r="C27">
         <v>22</v>
       </c>
-      <c r="D25">
+      <c r="D27">
         <v>351</v>
       </c>
-      <c r="F25">
+      <c r="F27">
         <v>1</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L27" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
-      <c r="A26" s="1">
+    <row r="28" spans="1:16">
+      <c r="A28" s="1">
         <v>236858</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B28" t="s">
         <v>30</v>
       </c>
-      <c r="C26">
+      <c r="C28">
         <v>67</v>
       </c>
-      <c r="D26">
+      <c r="D28">
         <v>138</v>
       </c>
-      <c r="G26">
+      <c r="G28">
         <v>151</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="1">
+    <row r="29" spans="1:16">
+      <c r="A29" s="1">
         <v>254342</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B29" t="s">
         <v>37</v>
       </c>
-      <c r="D27">
+      <c r="D29">
         <v>254</v>
       </c>
-      <c r="E27">
+      <c r="E29">
         <v>31</v>
       </c>
-      <c r="F27">
+      <c r="F29">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
-      <c r="A28" s="1">
+    <row r="30" spans="1:16">
+      <c r="A30" s="1">
         <v>484487</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B30" t="s">
         <v>7</v>
       </c>
-      <c r="C28">
+      <c r="C30">
         <v>43</v>
       </c>
-      <c r="D28">
+      <c r="D30">
         <v>144</v>
       </c>
-      <c r="E28">
+      <c r="E30">
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
-      <c r="A31" s="1">
+    <row r="33" spans="1:12">
+      <c r="A33" s="1">
         <v>175109</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B33" t="s">
         <v>52</v>
       </c>
-      <c r="C31">
+      <c r="C33">
         <v>347</v>
       </c>
-      <c r="D31">
+      <c r="D33">
         <v>251</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L33" t="s">
         <v>53</v>
       </c>
     </row>

--- a/Leetcode/!!!best_leetcoders.xlsx
+++ b/Leetcode/!!!best_leetcoders.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
   <si>
     <t>Rank</t>
   </si>
@@ -217,6 +217,12 @@
   </si>
   <si>
     <t>https://leetcode.com/u/StefanPochmann/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/u/votrubac/</t>
+  </si>
+  <si>
+    <t>https://github.com/votrubac</t>
   </si>
 </sst>
 </file>
@@ -568,11 +574,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L17" sqref="L17"/>
+      <selection pane="bottomLeft" activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -633,391 +639,421 @@
       </c>
     </row>
     <row r="2" spans="1:16">
-      <c r="A2" s="4">
-        <v>117</v>
+      <c r="A2" s="3">
+        <v>5</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="C2" s="2">
+        <v>7</v>
+      </c>
       <c r="D2" s="2">
-        <v>2571</v>
+        <v>305</v>
       </c>
       <c r="E2" s="2">
-        <v>18</v>
-      </c>
-      <c r="F2">
-        <v>91</v>
+        <v>16</v>
+      </c>
+      <c r="F2" s="2">
+        <v>279</v>
+      </c>
+      <c r="G2">
+        <v>2941</v>
+      </c>
+      <c r="H2" s="2">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2">
+        <v>251</v>
+      </c>
+      <c r="J2" s="2">
+        <v>5</v>
+      </c>
+      <c r="K2" s="2">
+        <v>69</v>
       </c>
       <c r="L2" t="s">
-        <v>32</v>
+        <v>68</v>
+      </c>
+      <c r="N2" s="2">
+        <v>832</v>
+      </c>
+      <c r="O2" s="2">
+        <v>1750</v>
+      </c>
+      <c r="P2" s="2">
+        <v>761</v>
       </c>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="4">
-        <v>214</v>
+        <v>117</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
+        <v>2571</v>
+      </c>
       <c r="E3" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F3">
-        <v>77</v>
-      </c>
-      <c r="G3">
-        <v>2383</v>
-      </c>
-      <c r="M3" t="s">
-        <v>16</v>
+        <v>91</v>
+      </c>
+      <c r="L3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:16">
       <c r="A4" s="4">
-        <v>282</v>
+        <v>214</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2">
-        <v>2349</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>13</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
+        <v>16</v>
+      </c>
       <c r="F4">
-        <v>37</v>
-      </c>
-      <c r="K4">
-        <v>34</v>
-      </c>
-      <c r="L4" t="s">
-        <v>36</v>
+        <v>77</v>
+      </c>
+      <c r="G4">
+        <v>2383</v>
       </c>
       <c r="M4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="1">
+      <c r="A5" s="4">
+        <v>282</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2">
+        <v>2349</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5">
+        <v>37</v>
+      </c>
+      <c r="K5">
+        <v>34</v>
+      </c>
+      <c r="L5" t="s">
+        <v>36</v>
+      </c>
+      <c r="M5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1">
         <v>296</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>2</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>243</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>230</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>37</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>1993</v>
       </c>
-      <c r="L5" t="s">
+      <c r="L6" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="4">
-        <v>736</v>
-      </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>1939</v>
-      </c>
-      <c r="F6">
-        <v>63</v>
-      </c>
-      <c r="K6">
-        <v>44</v>
-      </c>
-      <c r="L6" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" s="4">
-        <v>857</v>
+        <v>736</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>1881</v>
-      </c>
-      <c r="E7">
-        <v>62</v>
+        <v>1939</v>
       </c>
       <c r="F7">
-        <v>8</v>
+        <v>63</v>
+      </c>
+      <c r="K7">
+        <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:16">
       <c r="A8" s="4">
-        <v>1762</v>
+        <v>857</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="C8">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>1625</v>
+        <v>1881</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="F8">
-        <v>11</v>
-      </c>
-      <c r="K8">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="L8" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:16">
       <c r="A9" s="4">
-        <v>1998</v>
+        <v>1762</v>
       </c>
       <c r="B9" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="C9">
-        <v>121</v>
+        <v>56</v>
+      </c>
+      <c r="D9">
+        <v>1625</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
       </c>
       <c r="F9">
-        <v>17</v>
-      </c>
-      <c r="H9">
-        <v>1457</v>
-      </c>
-      <c r="I9">
-        <v>316</v>
+        <v>11</v>
+      </c>
+      <c r="K9">
+        <v>13</v>
       </c>
       <c r="L9" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" s="4">
+        <v>1998</v>
+      </c>
+      <c r="B10" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10">
+        <v>121</v>
+      </c>
+      <c r="F10">
+        <v>17</v>
+      </c>
+      <c r="H10">
+        <v>1457</v>
+      </c>
+      <c r="I10">
+        <v>316</v>
+      </c>
+      <c r="L10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="4">
         <v>2602</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" t="s">
         <v>38</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>15</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>1420</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>77</v>
       </c>
-      <c r="L10" t="s">
+      <c r="L11" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="1">
-        <v>4194</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>1319</v>
-      </c>
-      <c r="G11">
-        <v>7</v>
-      </c>
-      <c r="I11">
-        <v>6</v>
-      </c>
-      <c r="L11" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:16">
       <c r="A12" s="1">
-        <v>5561</v>
+        <v>4194</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>60</v>
-      </c>
-      <c r="F12">
-        <v>46</v>
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>1319</v>
       </c>
       <c r="G12">
-        <v>1142</v>
+        <v>7</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
       </c>
       <c r="L12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1">
-        <v>7887</v>
+        <v>5561</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C13">
-        <v>728</v>
-      </c>
-      <c r="D13">
-        <v>44</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="G13">
-        <v>553</v>
+        <v>1142</v>
       </c>
       <c r="L13" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1">
-        <v>16161</v>
+        <v>7887</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>49</v>
+      </c>
+      <c r="C14">
+        <v>728</v>
       </c>
       <c r="D14">
-        <v>191</v>
+        <v>44</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>895</v>
+        <v>553</v>
       </c>
       <c r="L14" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1">
-        <v>28379</v>
+        <v>16161</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>678</v>
-      </c>
-      <c r="F15">
-        <v>27</v>
+        <v>191</v>
+      </c>
+      <c r="G15">
+        <v>895</v>
       </c>
       <c r="L15" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1">
+        <v>28379</v>
+      </c>
+      <c r="B16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D16">
+        <v>678</v>
+      </c>
+      <c r="F16">
+        <v>27</v>
+      </c>
+      <c r="L16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
         <v>35010</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>66</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>658</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>217</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>272</v>
       </c>
-      <c r="I16">
+      <c r="I17">
         <v>201</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:16" s="6" customFormat="1">
-      <c r="A17" s="5">
+    <row r="18" spans="1:16" s="6" customFormat="1">
+      <c r="A18" s="5">
         <v>43281</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C18" s="6">
         <v>724</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N18" s="6">
         <v>187</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O18" s="6">
         <v>387</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P18" s="6">
         <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="1">
-        <v>52374</v>
-      </c>
-      <c r="B18" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18">
-        <v>605</v>
-      </c>
-      <c r="D18">
-        <v>61</v>
-      </c>
-      <c r="F18">
-        <v>7</v>
-      </c>
-      <c r="L18" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="1">
-        <v>54012</v>
+        <v>52374</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C19">
-        <v>629</v>
+        <v>605</v>
+      </c>
+      <c r="D19">
+        <v>61</v>
       </c>
       <c r="F19">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L19" t="s">
         <v>39</v>
@@ -1025,194 +1061,211 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1">
+        <v>54012</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20">
+        <v>629</v>
+      </c>
+      <c r="F20">
+        <v>6</v>
+      </c>
+      <c r="L20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1">
         <v>66186</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>46</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>583</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="1">
-        <v>62507</v>
-      </c>
-      <c r="B22" t="s">
-        <v>21</v>
-      </c>
-      <c r="G22">
-        <v>599</v>
-      </c>
-      <c r="I22">
-        <v>4</v>
-      </c>
-      <c r="L22" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="1">
-        <v>85400</v>
+        <v>62507</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23">
-        <v>63</v>
-      </c>
-      <c r="K23">
-        <v>352</v>
+        <v>21</v>
+      </c>
+      <c r="G23">
+        <v>599</v>
+      </c>
+      <c r="I23">
+        <v>4</v>
       </c>
       <c r="L23" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="1">
-        <v>87082</v>
+        <v>85400</v>
       </c>
       <c r="B24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D24">
-        <v>287</v>
-      </c>
-      <c r="E24">
-        <v>15</v>
-      </c>
-      <c r="F24">
-        <v>58</v>
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>63</v>
+      </c>
+      <c r="K24">
+        <v>352</v>
       </c>
       <c r="L24" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="1">
-        <v>99772</v>
+        <v>87082</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>62</v>
+      </c>
+      <c r="D25">
+        <v>287</v>
+      </c>
+      <c r="E25">
+        <v>15</v>
       </c>
       <c r="F25">
-        <v>17</v>
-      </c>
-      <c r="G25">
-        <v>481</v>
+        <v>58</v>
       </c>
       <c r="L25" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="1">
-        <v>112190</v>
+        <v>99772</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26">
-        <v>2</v>
-      </c>
-      <c r="D26">
-        <v>499</v>
-      </c>
-      <c r="H26">
-        <v>46</v>
+        <v>25</v>
+      </c>
+      <c r="F26">
+        <v>17</v>
+      </c>
+      <c r="G26">
+        <v>481</v>
       </c>
       <c r="L26" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1">
-        <v>143368</v>
+        <v>112190</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C27">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D27">
-        <v>351</v>
-      </c>
-      <c r="F27">
-        <v>1</v>
+        <v>499</v>
+      </c>
+      <c r="H27">
+        <v>46</v>
       </c>
       <c r="L27" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="1">
-        <v>236858</v>
+        <v>143368</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C28">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>138</v>
-      </c>
-      <c r="G28">
-        <v>151</v>
+        <v>351</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="L28" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1">
-        <v>254342</v>
+        <v>236858</v>
       </c>
       <c r="B29" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="C29">
+        <v>67</v>
       </c>
       <c r="D29">
-        <v>254</v>
-      </c>
-      <c r="E29">
-        <v>31</v>
-      </c>
-      <c r="F29">
-        <v>19</v>
+        <v>138</v>
+      </c>
+      <c r="G29">
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1">
+        <v>254342</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30">
+        <v>254</v>
+      </c>
+      <c r="E30">
+        <v>31</v>
+      </c>
+      <c r="F30">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
+      <c r="A31" s="1">
         <v>484487</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>7</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>43</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>144</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
-      <c r="A33" s="1">
+    <row r="34" spans="1:12">
+      <c r="A34" s="1">
         <v>175109</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>52</v>
       </c>
-      <c r="C33">
+      <c r="C34">
         <v>347</v>
       </c>
-      <c r="D33">
+      <c r="D34">
         <v>251</v>
       </c>
-      <c r="L33" t="s">
+      <c r="L34" t="s">
         <v>53</v>
       </c>
     </row>

--- a/Leetcode/!!!best_leetcoders.xlsx
+++ b/Leetcode/!!!best_leetcoders.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>Rank</t>
   </si>
@@ -223,6 +223,9 @@
   </si>
   <si>
     <t>https://github.com/votrubac</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/u/Edwards310/</t>
   </si>
 </sst>
 </file>
@@ -574,11 +577,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P34"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P3" sqref="P3"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -998,79 +1001,91 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1">
-        <v>35010</v>
+        <v>32468</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C17">
-        <v>658</v>
+        <v>437</v>
       </c>
       <c r="D17">
-        <v>217</v>
-      </c>
-      <c r="G17">
-        <v>272</v>
-      </c>
-      <c r="I17">
-        <v>201</v>
+        <v>483</v>
+      </c>
+      <c r="E17">
+        <v>16</v>
       </c>
       <c r="L17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" s="6" customFormat="1">
-      <c r="A18" s="5">
+      <c r="N17">
+        <v>406</v>
+      </c>
+      <c r="O17">
+        <v>336</v>
+      </c>
+      <c r="P17">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>35010</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18">
+        <v>658</v>
+      </c>
+      <c r="D18">
+        <v>217</v>
+      </c>
+      <c r="G18">
+        <v>272</v>
+      </c>
+      <c r="I18">
+        <v>201</v>
+      </c>
+      <c r="L18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="6" customFormat="1">
+      <c r="A19" s="5">
         <v>43281</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B19" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C19" s="6">
         <v>724</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N19" s="6">
         <v>187</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O19" s="6">
         <v>387</v>
       </c>
-      <c r="P18" s="6">
+      <c r="P19" s="6">
         <v>158</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="1">
-        <v>52374</v>
-      </c>
-      <c r="B19" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19">
-        <v>605</v>
-      </c>
-      <c r="D19">
-        <v>61</v>
-      </c>
-      <c r="F19">
-        <v>7</v>
-      </c>
-      <c r="L19" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="1">
-        <v>54012</v>
+        <v>52374</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C20">
-        <v>629</v>
+        <v>605</v>
+      </c>
+      <c r="D20">
+        <v>61</v>
       </c>
       <c r="F20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L20" t="s">
         <v>39</v>
@@ -1078,194 +1093,211 @@
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="1">
+        <v>54012</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21">
+        <v>629</v>
+      </c>
+      <c r="F21">
+        <v>6</v>
+      </c>
+      <c r="L21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="1">
         <v>66186</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>46</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>583</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="1">
-        <v>62507</v>
-      </c>
-      <c r="B23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23">
-        <v>599</v>
-      </c>
-      <c r="I23">
-        <v>4</v>
-      </c>
-      <c r="L23" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="1">
-        <v>85400</v>
+        <v>62507</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24">
-        <v>63</v>
-      </c>
-      <c r="K24">
-        <v>352</v>
+        <v>21</v>
+      </c>
+      <c r="G24">
+        <v>599</v>
+      </c>
+      <c r="I24">
+        <v>4</v>
       </c>
       <c r="L24" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="1">
-        <v>87082</v>
+        <v>85400</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
-      </c>
-      <c r="D25">
-        <v>287</v>
-      </c>
-      <c r="E25">
-        <v>15</v>
-      </c>
-      <c r="F25">
-        <v>58</v>
+        <v>27</v>
+      </c>
+      <c r="C25">
+        <v>63</v>
+      </c>
+      <c r="K25">
+        <v>352</v>
       </c>
       <c r="L25" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="1">
-        <v>99772</v>
+        <v>87082</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>62</v>
+      </c>
+      <c r="D26">
+        <v>287</v>
+      </c>
+      <c r="E26">
+        <v>15</v>
       </c>
       <c r="F26">
-        <v>17</v>
-      </c>
-      <c r="G26">
-        <v>481</v>
+        <v>58</v>
       </c>
       <c r="L26" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1">
-        <v>112190</v>
+        <v>99772</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
-      </c>
-      <c r="C27">
-        <v>2</v>
-      </c>
-      <c r="D27">
-        <v>499</v>
-      </c>
-      <c r="H27">
-        <v>46</v>
+        <v>25</v>
+      </c>
+      <c r="F27">
+        <v>17</v>
+      </c>
+      <c r="G27">
+        <v>481</v>
       </c>
       <c r="L27" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="1">
-        <v>143368</v>
+        <v>112190</v>
       </c>
       <c r="B28" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D28">
-        <v>351</v>
-      </c>
-      <c r="F28">
-        <v>1</v>
+        <v>499</v>
+      </c>
+      <c r="H28">
+        <v>46</v>
       </c>
       <c r="L28" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1">
-        <v>236858</v>
+        <v>143368</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C29">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D29">
-        <v>138</v>
-      </c>
-      <c r="G29">
-        <v>151</v>
+        <v>351</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="L29" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1">
-        <v>254342</v>
+        <v>236858</v>
       </c>
       <c r="B30" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="C30">
+        <v>67</v>
       </c>
       <c r="D30">
-        <v>254</v>
-      </c>
-      <c r="E30">
-        <v>31</v>
-      </c>
-      <c r="F30">
-        <v>19</v>
+        <v>138</v>
+      </c>
+      <c r="G30">
+        <v>151</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="1">
+        <v>254342</v>
+      </c>
+      <c r="B31" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31">
+        <v>254</v>
+      </c>
+      <c r="E31">
+        <v>31</v>
+      </c>
+      <c r="F31">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
+      <c r="A32" s="1">
         <v>484487</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>7</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>43</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>144</v>
       </c>
-      <c r="E31">
+      <c r="E32">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="1">
+    <row r="35" spans="1:12">
+      <c r="A35" s="1">
         <v>175109</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>52</v>
       </c>
-      <c r="C34">
+      <c r="C35">
         <v>347</v>
       </c>
-      <c r="D34">
+      <c r="D35">
         <v>251</v>
       </c>
-      <c r="L34" t="s">
+      <c r="L35" t="s">
         <v>53</v>
       </c>
     </row>

--- a/Leetcode/!!!best_leetcoders.xlsx
+++ b/Leetcode/!!!best_leetcoders.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="71">
   <si>
     <t>Rank</t>
   </si>
@@ -226,6 +227,9 @@
   </si>
   <si>
     <t>https://leetcode.com/u/Edwards310/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/u/code__HARD/</t>
   </si>
 </sst>
 </file>
@@ -577,11 +581,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P35"/>
+  <dimension ref="A1:P36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -878,231 +882,228 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" s="4">
+        <v>2656</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11">
+        <v>1576</v>
+      </c>
+      <c r="F11">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="4">
         <v>2602</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>38</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>15</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>1420</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>77</v>
       </c>
-      <c r="L11" t="s">
+      <c r="L12" t="s">
         <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="1">
-        <v>4194</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12">
-        <v>6</v>
-      </c>
-      <c r="D12">
-        <v>1319</v>
-      </c>
-      <c r="G12">
-        <v>7</v>
-      </c>
-      <c r="I12">
-        <v>6</v>
-      </c>
-      <c r="L12" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="1">
-        <v>5561</v>
+        <v>4194</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C13">
-        <v>60</v>
-      </c>
-      <c r="F13">
-        <v>46</v>
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>1319</v>
       </c>
       <c r="G13">
-        <v>1142</v>
+        <v>7</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
       </c>
       <c r="L13" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="1">
-        <v>7887</v>
+        <v>5561</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C14">
-        <v>728</v>
-      </c>
-      <c r="D14">
-        <v>44</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="F14">
-        <v>2</v>
+        <v>46</v>
       </c>
       <c r="G14">
-        <v>553</v>
+        <v>1142</v>
       </c>
       <c r="L14" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="1">
-        <v>16161</v>
+        <v>7887</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>49</v>
+      </c>
+      <c r="C15">
+        <v>728</v>
       </c>
       <c r="D15">
-        <v>191</v>
+        <v>44</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>895</v>
+        <v>553</v>
       </c>
       <c r="L15" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="1">
-        <v>28379</v>
+        <v>16161</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="D16">
-        <v>678</v>
-      </c>
-      <c r="F16">
-        <v>27</v>
+        <v>191</v>
+      </c>
+      <c r="G16">
+        <v>895</v>
       </c>
       <c r="L16" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="1">
-        <v>32468</v>
+        <v>28379</v>
       </c>
       <c r="B17" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17">
-        <v>437</v>
+        <v>60</v>
       </c>
       <c r="D17">
-        <v>483</v>
-      </c>
-      <c r="E17">
-        <v>16</v>
+        <v>678</v>
+      </c>
+      <c r="F17">
+        <v>27</v>
       </c>
       <c r="L17" t="s">
-        <v>39</v>
-      </c>
-      <c r="N17">
-        <v>406</v>
-      </c>
-      <c r="O17">
-        <v>336</v>
-      </c>
-      <c r="P17">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="1">
-        <v>35010</v>
+        <v>32468</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C18">
-        <v>658</v>
+        <v>437</v>
       </c>
       <c r="D18">
-        <v>217</v>
-      </c>
-      <c r="G18">
-        <v>272</v>
-      </c>
-      <c r="I18">
-        <v>201</v>
+        <v>483</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
       </c>
       <c r="L18" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" s="6" customFormat="1">
-      <c r="A19" s="5">
+      <c r="N18">
+        <v>406</v>
+      </c>
+      <c r="O18">
+        <v>336</v>
+      </c>
+      <c r="P18">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>35010</v>
+      </c>
+      <c r="B19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19">
+        <v>658</v>
+      </c>
+      <c r="D19">
+        <v>217</v>
+      </c>
+      <c r="G19">
+        <v>272</v>
+      </c>
+      <c r="I19">
+        <v>201</v>
+      </c>
+      <c r="L19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="6" customFormat="1">
+      <c r="A20" s="5">
         <v>43281</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B20" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C20" s="6">
         <v>724</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N20" s="6">
         <v>187</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O20" s="6">
         <v>387</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P20" s="6">
         <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="1">
-        <v>52374</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20">
-        <v>605</v>
-      </c>
-      <c r="D20">
-        <v>61</v>
-      </c>
-      <c r="F20">
-        <v>7</v>
-      </c>
-      <c r="L20" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="1">
-        <v>54012</v>
+        <v>52374</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C21">
-        <v>629</v>
+        <v>605</v>
+      </c>
+      <c r="D21">
+        <v>61</v>
       </c>
       <c r="F21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="L21" t="s">
         <v>39</v>
@@ -1110,194 +1111,211 @@
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="1">
+        <v>54012</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22">
+        <v>629</v>
+      </c>
+      <c r="F22">
+        <v>6</v>
+      </c>
+      <c r="L22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="1">
         <v>66186</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>46</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>583</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="1">
-        <v>62507</v>
-      </c>
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-      <c r="G24">
-        <v>599</v>
-      </c>
-      <c r="I24">
-        <v>4</v>
-      </c>
-      <c r="L24" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:16">
       <c r="A25" s="1">
-        <v>85400</v>
+        <v>62507</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
-      </c>
-      <c r="C25">
-        <v>63</v>
-      </c>
-      <c r="K25">
-        <v>352</v>
+        <v>21</v>
+      </c>
+      <c r="G25">
+        <v>599</v>
+      </c>
+      <c r="I25">
+        <v>4</v>
       </c>
       <c r="L25" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:16">
       <c r="A26" s="1">
-        <v>87082</v>
+        <v>85400</v>
       </c>
       <c r="B26" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26">
-        <v>287</v>
-      </c>
-      <c r="E26">
-        <v>15</v>
-      </c>
-      <c r="F26">
-        <v>58</v>
+        <v>27</v>
+      </c>
+      <c r="C26">
+        <v>63</v>
+      </c>
+      <c r="K26">
+        <v>352</v>
       </c>
       <c r="L26" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:16">
       <c r="A27" s="1">
-        <v>99772</v>
+        <v>87082</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>62</v>
+      </c>
+      <c r="D27">
+        <v>287</v>
+      </c>
+      <c r="E27">
+        <v>15</v>
       </c>
       <c r="F27">
-        <v>17</v>
-      </c>
-      <c r="G27">
-        <v>481</v>
+        <v>58</v>
       </c>
       <c r="L27" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:16">
       <c r="A28" s="1">
-        <v>112190</v>
+        <v>99772</v>
       </c>
       <c r="B28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C28">
-        <v>2</v>
-      </c>
-      <c r="D28">
-        <v>499</v>
-      </c>
-      <c r="H28">
-        <v>46</v>
+        <v>25</v>
+      </c>
+      <c r="F28">
+        <v>17</v>
+      </c>
+      <c r="G28">
+        <v>481</v>
       </c>
       <c r="L28" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:16">
       <c r="A29" s="1">
-        <v>143368</v>
+        <v>112190</v>
       </c>
       <c r="B29" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="C29">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="D29">
-        <v>351</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
+        <v>499</v>
+      </c>
+      <c r="H29">
+        <v>46</v>
       </c>
       <c r="L29" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:16">
       <c r="A30" s="1">
-        <v>236858</v>
+        <v>143368</v>
       </c>
       <c r="B30" t="s">
-        <v>30</v>
+        <v>45</v>
       </c>
       <c r="C30">
-        <v>67</v>
+        <v>22</v>
       </c>
       <c r="D30">
-        <v>138</v>
-      </c>
-      <c r="G30">
-        <v>151</v>
+        <v>351</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="L30" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:16">
       <c r="A31" s="1">
-        <v>254342</v>
+        <v>236858</v>
       </c>
       <c r="B31" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>67</v>
       </c>
       <c r="D31">
-        <v>254</v>
-      </c>
-      <c r="E31">
-        <v>31</v>
-      </c>
-      <c r="F31">
-        <v>19</v>
+        <v>138</v>
+      </c>
+      <c r="G31">
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:16">
       <c r="A32" s="1">
+        <v>254342</v>
+      </c>
+      <c r="B32" t="s">
+        <v>37</v>
+      </c>
+      <c r="D32">
+        <v>254</v>
+      </c>
+      <c r="E32">
+        <v>31</v>
+      </c>
+      <c r="F32">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" s="1">
         <v>484487</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>7</v>
       </c>
-      <c r="C32">
+      <c r="C33">
         <v>43</v>
       </c>
-      <c r="D32">
+      <c r="D33">
         <v>144</v>
       </c>
-      <c r="E32">
+      <c r="E33">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="1">
+    <row r="36" spans="1:12">
+      <c r="A36" s="1">
         <v>175109</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>52</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>347</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>251</v>
       </c>
-      <c r="L35" t="s">
+      <c r="L36" t="s">
         <v>53</v>
       </c>
     </row>
